--- a/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1005,7 +1005,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="252">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1187,6 +1187,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1325,7 +1326,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1360,10 +1361,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1376,7 +1377,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1385,7 +1386,7 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1415,17 +1416,17 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1465,7 +1466,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1499,7 +1500,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="252">
+  <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1662,6 +1663,7 @@
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2266,7 +2268,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2452,8 +2454,8 @@
   </sheetPr>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3006,7 +3008,7 @@
       </c>
       <c r="E32" s="102">
         <f>'Research data'!G16</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
@@ -3360,7 +3362,7 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3614,8 +3616,7 @@
         <v>106</v>
       </c>
       <c r="G16" s="80">
-        <f>ROUND((G17*G6*1000),2)</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -3632,9 +3633,7 @@
       <c r="F17" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="80">
-        <v>100</v>
-      </c>
+      <c r="G17" s="80"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="73"/>

--- a/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="17540" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -303,9 +303,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -514,6 +511,10 @@
   </si>
   <si>
     <t>See documentation Households water heater heatpump air water electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
   </si>
 </sst>
 </file>
@@ -527,7 +528,7 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -631,11 +632,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1253,27 +1249,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1286,7 +1282,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1301,7 +1297,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1326,21 +1322,21 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1358,24 +1354,24 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1410,37 +1406,37 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="252">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1706,83 +1702,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2374,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2383,7 +2303,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,14 +2436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2548,28 +2468,28 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+      <c r="B2" s="156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+    <row r="4" spans="2:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
@@ -2622,7 +2542,7 @@
     <row r="9" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="10"/>
@@ -2635,7 +2555,7 @@
     <row r="10" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>4</v>
@@ -2655,7 +2575,7 @@
     <row r="11" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
       <c r="C11" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>4</v>
@@ -2675,7 +2595,7 @@
     <row r="12" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>4</v>
@@ -2695,7 +2615,7 @@
     <row r="13" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
       <c r="C13" s="95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>4</v>
@@ -2715,7 +2635,7 @@
     <row r="14" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
@@ -2735,7 +2655,7 @@
     <row r="15" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>4</v>
@@ -2755,7 +2675,7 @@
     <row r="16" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16"/>
       <c r="C16" s="93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>4</v>
@@ -2775,10 +2695,10 @@
     <row r="17" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="100">
         <f>'Research data'!E13</f>
@@ -2795,10 +2715,10 @@
     <row r="18" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16"/>
       <c r="C18" s="93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="38">
         <f>'Research data'!E14</f>
@@ -2857,7 +2777,7 @@
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
       <c r="C21" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -3106,7 +3026,7 @@
     <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="79"/>
       <c r="E33" s="26"/>
@@ -3314,10 +3234,10 @@
     <row r="43" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="16"/>
       <c r="C43" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="E43" s="102">
         <f>'Research data'!E39</f>
@@ -3442,7 +3362,7 @@
     <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
       <c r="C50" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>4</v>
@@ -3462,7 +3382,7 @@
     <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="31"/>
       <c r="C51" s="96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>4</v>
@@ -3482,7 +3402,7 @@
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
       <c r="C52" s="96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>4</v>
@@ -3502,7 +3422,7 @@
     <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
       <c r="C53" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>4</v>
@@ -3522,7 +3442,7 @@
     <row r="54" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="31"/>
       <c r="C54" s="96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>4</v>
@@ -3556,38 +3476,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -3634,7 +3522,7 @@
     <row r="3" spans="2:13" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="77"/>
       <c r="C3" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="83" t="s">
         <v>12</v>
@@ -3643,26 +3531,26 @@
         <v>80</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -3889,15 +3777,15 @@
         <v>0</v>
       </c>
       <c r="F13" s="143"/>
-      <c r="G13" s="163">
+      <c r="G13" s="154">
         <f>Notes!E60</f>
         <v>0</v>
       </c>
-      <c r="H13" s="163">
+      <c r="H13" s="154">
         <f>Notes!E29</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="I13" s="163">
+      <c r="I13" s="154">
         <f>Notes!E37</f>
         <v>3.3E-3</v>
       </c>
@@ -3930,7 +3818,7 @@
       </c>
       <c r="L14" s="141"/>
       <c r="M14" s="153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4918,13 +4806,13 @@
         <v>28</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="105" t="s">
         <v>14</v>
@@ -4950,10 +4838,10 @@
       </c>
       <c r="D7" s="125"/>
       <c r="E7" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="125" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>108</v>
       </c>
       <c r="G7" s="125">
         <v>2015</v>
@@ -4965,7 +4853,7 @@
         <v>42948</v>
       </c>
       <c r="J7" s="124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="127"/>
     </row>
@@ -5004,22 +4892,22 @@
       </c>
       <c r="D10" s="125"/>
       <c r="E10" s="125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="125">
         <v>2010</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="126">
         <v>42948</v>
       </c>
       <c r="J10" s="129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="127"/>
     </row>
@@ -5043,10 +4931,10 @@
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
@@ -5054,10 +4942,10 @@
         <v>42948</v>
       </c>
       <c r="J12" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="127" t="s">
         <v>113</v>
-      </c>
-      <c r="K12" s="127" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -5155,7 +5043,7 @@
       </c>
       <c r="D19" s="125"/>
       <c r="E19" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
@@ -5184,22 +5072,22 @@
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="126">
         <v>42948</v>
       </c>
       <c r="J21" s="129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" s="127"/>
     </row>
@@ -5223,14 +5111,14 @@
       </c>
       <c r="D23" s="125"/>
       <c r="E23" s="125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
       <c r="I23" s="125"/>
       <c r="J23" s="131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K23" s="127"/>
     </row>
@@ -5691,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="D22" zoomScale="94" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -5727,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -5761,10 +5649,10 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="89"/>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="90">
         <v>65</v>
@@ -5834,7 +5722,7 @@
       <c r="B13" s="89"/>
       <c r="C13" s="90"/>
       <c r="D13" s="90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="90"/>
       <c r="F13" s="90"/>
@@ -5847,13 +5735,13 @@
       <c r="B14" s="89"/>
       <c r="C14" s="90"/>
       <c r="D14" s="92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="90">
         <v>3.25</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
@@ -5864,13 +5752,13 @@
       <c r="B15" s="89"/>
       <c r="C15" s="90"/>
       <c r="D15" s="92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="90">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
@@ -5946,13 +5834,13 @@
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="89"/>
       <c r="C22" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="90"/>
       <c r="I22" s="90"/>
@@ -5962,13 +5850,13 @@
       <c r="B23" s="89"/>
       <c r="C23" s="10"/>
       <c r="D23" s="90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="132">
         <v>10</v>
       </c>
       <c r="F23" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
@@ -5979,13 +5867,13 @@
       <c r="B24" s="89"/>
       <c r="C24" s="10"/>
       <c r="D24" s="90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="132">
         <v>10</v>
       </c>
       <c r="F24" s="132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="90"/>
       <c r="H24" s="90"/>
@@ -5996,13 +5884,13 @@
       <c r="B25" s="89"/>
       <c r="C25" s="10"/>
       <c r="D25" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="132">
         <v>4.18</v>
       </c>
       <c r="F25" s="132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="90"/>
       <c r="H25" s="90"/>
@@ -6013,16 +5901,16 @@
       <c r="B26" s="89"/>
       <c r="C26" s="10"/>
       <c r="D26" s="90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="132">
         <v>10</v>
       </c>
       <c r="F26" s="132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="90"/>
       <c r="I26" s="90"/>
@@ -6032,14 +5920,14 @@
       <c r="B27" s="89"/>
       <c r="C27" s="10"/>
       <c r="D27" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="133">
         <f>E23*60*E24/E25/E26</f>
         <v>143.54066985645935</v>
       </c>
       <c r="F27" s="132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
@@ -6050,13 +5938,13 @@
       <c r="B28" s="89"/>
       <c r="C28" s="10"/>
       <c r="D28" s="90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="133">
         <v>3600000</v>
       </c>
       <c r="F28" s="132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G28" s="90"/>
       <c r="H28" s="90"/>
@@ -6075,7 +5963,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="F29" s="132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="106"/>
@@ -6096,16 +5984,16 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="89"/>
       <c r="C31" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="132">
         <v>20</v>
       </c>
       <c r="F31" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="90"/>
       <c r="H31" s="90"/>
@@ -6116,13 +6004,13 @@
       <c r="B32" s="89"/>
       <c r="C32" s="10"/>
       <c r="D32" s="90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="132">
         <v>10</v>
       </c>
       <c r="F32" s="132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="90"/>
       <c r="H32" s="90"/>
@@ -6133,13 +6021,13 @@
       <c r="B33" s="89"/>
       <c r="C33" s="10"/>
       <c r="D33" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="132">
         <v>4.18</v>
       </c>
       <c r="F33" s="132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G33" s="90"/>
       <c r="H33" s="90"/>
@@ -6150,16 +6038,16 @@
       <c r="B34" s="89"/>
       <c r="C34" s="10"/>
       <c r="D34" s="90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="132">
         <v>10</v>
       </c>
       <c r="F34" s="132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G34" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="90"/>
       <c r="I34" s="90"/>
@@ -6169,14 +6057,14 @@
       <c r="B35" s="89"/>
       <c r="C35" s="10"/>
       <c r="D35" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="133">
         <f>E31*60*E32/E33/E34</f>
         <v>287.08133971291869</v>
       </c>
       <c r="F35" s="132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G35" s="90"/>
       <c r="H35" s="90"/>
@@ -6187,13 +6075,13 @@
       <c r="B36" s="89"/>
       <c r="C36" s="10"/>
       <c r="D36" s="90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="133">
         <v>3600000</v>
       </c>
       <c r="F36" s="132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G36" s="90"/>
       <c r="H36" s="90"/>
@@ -6212,7 +6100,7 @@
         <v>3.3E-3</v>
       </c>
       <c r="F37" s="132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="90"/>
       <c r="H37" s="90"/>
@@ -6321,10 +6209,10 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="89"/>
       <c r="C47" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="90"/>
       <c r="F47" s="90"/>
@@ -6337,10 +6225,10 @@
       <c r="B48" s="89"/>
       <c r="C48" s="10"/>
       <c r="D48" s="90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
@@ -6381,7 +6269,7 @@
       <c r="B51" s="89"/>
       <c r="C51" s="90"/>
       <c r="D51" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="90">
         <v>9500</v>
@@ -6398,9 +6286,9 @@
       <c r="B52" s="89"/>
       <c r="C52" s="90"/>
       <c r="D52" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="164">
+        <v>152</v>
+      </c>
+      <c r="E52" s="155">
         <v>253.6</v>
       </c>
       <c r="F52" s="90" t="s">
@@ -6418,7 +6306,7 @@
         <f>Dashboard!C34</f>
         <v>initial_investment</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="155">
         <f>E51-E52</f>
         <v>9246.4</v>
       </c>
@@ -6444,7 +6332,7 @@
         <v>30</v>
       </c>
       <c r="G54" s="90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H54" s="90"/>
       <c r="I54" s="90"/>
@@ -6487,7 +6375,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J56" s="91"/>
     </row>
@@ -6506,13 +6394,13 @@
       <c r="B58" s="89"/>
       <c r="C58" s="90"/>
       <c r="D58" s="90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E58" s="90">
         <v>7</v>
       </c>
       <c r="F58" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="90"/>
       <c r="H58" s="90"/>
@@ -6523,7 +6411,7 @@
       <c r="B59" s="89"/>
       <c r="C59" s="90"/>
       <c r="D59" s="92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="90">
         <f>H56/(E58*E15+E14)/1000</f>
@@ -6548,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G60" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H60" s="90"/>
       <c r="I60" s="90"/>
@@ -6571,7 +6459,7 @@
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="89"/>
       <c r="C62" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="134" t="str">
         <f>Dashboard!C43</f>
@@ -6581,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G62" s="90"/>
       <c r="H62" s="90"/>

--- a/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762C284E-EBE5-7348-B349-4562489C2561}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
   <si>
     <t>Source</t>
   </si>
@@ -223,36 +224,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -520,7 +491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -528,7 +499,7 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1205,7 +1176,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1269,8 +1240,6 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1698,6 +1667,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1719,7 +1691,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1757,7 +1735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1795,7 +1779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2255,58 +2245,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="14"/>
+    <col min="1" max="1" width="3.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="20" customFormat="1">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -2315,118 +2305,118 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="63"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="66" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="10" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="67" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="70"/>
+      <c r="C23" s="74" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="69" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="72"/>
-      <c r="C23" s="76" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2436,67 +2426,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K55"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="28" customWidth="1"/>
     <col min="3" max="3" width="46" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="28" customWidth="1"/>
     <col min="6" max="6" width="7" style="28" customWidth="1"/>
     <col min="7" max="7" width="45" style="28" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="47.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="28" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="28"/>
+    <col min="8" max="8" width="5.1640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
-    <row r="4" spans="2:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
+    <row r="4" spans="2:10" ht="35" customHeight="1">
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="26"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="29"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2507,12 +2497,12 @@
       <c r="I6" s="12"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="2:10" s="35" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
+    <row r="7" spans="2:10" s="35" customFormat="1" ht="19">
+      <c r="B7" s="75"/>
       <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="76" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2526,9 +2516,9 @@
       <c r="I7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="81"/>
-    </row>
-    <row r="8" spans="2:10" s="35" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="2:10" s="35" customFormat="1" ht="19">
       <c r="B8" s="16"/>
       <c r="C8" s="10"/>
       <c r="D8" s="24"/>
@@ -2539,10 +2529,10 @@
       <c r="I8" s="10"/>
       <c r="J8" s="36"/>
     </row>
-    <row r="9" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="16"/>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="10"/>
@@ -2552,15 +2542,15 @@
       <c r="I9" s="10"/>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="16"/>
-      <c r="C10" s="95" t="s">
-        <v>94</v>
+      <c r="C10" s="93" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="98">
         <f>'Research data'!E6</f>
         <v>0.77777777777777801</v>
       </c>
@@ -2572,15 +2562,15 @@
       </c>
       <c r="J10" s="36"/>
     </row>
-    <row r="11" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="16"/>
-      <c r="C11" s="95" t="s">
-        <v>95</v>
+      <c r="C11" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="98">
         <f>'Research data'!E7</f>
         <v>0.22222222222222199</v>
       </c>
@@ -2592,10 +2582,10 @@
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="16"/>
-      <c r="C12" s="90" t="s">
-        <v>101</v>
+      <c r="C12" s="88" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>4</v>
@@ -2612,10 +2602,10 @@
       </c>
       <c r="J12" s="36"/>
     </row>
-    <row r="13" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="16"/>
-      <c r="C13" s="95" t="s">
-        <v>96</v>
+      <c r="C13" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>4</v>
@@ -2632,10 +2622,10 @@
       </c>
       <c r="J13" s="36"/>
     </row>
-    <row r="14" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="16"/>
-      <c r="C14" s="93" t="s">
-        <v>102</v>
+      <c r="C14" s="91" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
@@ -2652,15 +2642,15 @@
       </c>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B15" s="16"/>
-      <c r="C15" s="93" t="s">
-        <v>103</v>
+      <c r="C15" s="91" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="99">
         <f>'Research data'!E11</f>
         <v>2.5889967637540458E-3</v>
       </c>
@@ -2672,15 +2662,15 @@
       </c>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B16" s="16"/>
-      <c r="C16" s="93" t="s">
-        <v>104</v>
+      <c r="C16" s="91" t="s">
+        <v>94</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="98">
         <f>'Research data'!E12</f>
         <v>8.7499999999999994E-2</v>
       </c>
@@ -2692,15 +2682,15 @@
       </c>
       <c r="J16" s="36"/>
     </row>
-    <row r="17" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B17" s="16"/>
-      <c r="C17" s="93" t="s">
-        <v>105</v>
+      <c r="C17" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="100">
+        <v>138</v>
+      </c>
+      <c r="E17" s="98">
         <f>'Research data'!E13</f>
         <v>0</v>
       </c>
@@ -2712,13 +2702,13 @@
       </c>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B18" s="16"/>
-      <c r="C18" s="93" t="s">
-        <v>142</v>
+      <c r="C18" s="91" t="s">
+        <v>132</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E18" s="38">
         <f>'Research data'!E14</f>
@@ -2732,7 +2722,7 @@
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="31"/>
       <c r="C19" s="26" t="s">
         <v>31</v>
@@ -2750,10 +2740,10 @@
         <f>LOOKUP(E19,'Research data'!F15:K15,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J19" s="82"/>
+      <c r="J19" s="80"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="31"/>
       <c r="C20" s="26" t="s">
         <v>33</v>
@@ -2771,13 +2761,13 @@
         <f>LOOKUP(E20,'Research data'!F16:K16,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J20" s="82"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="31"/>
-      <c r="C21" s="95" t="s">
-        <v>97</v>
+      <c r="C21" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2792,10 +2782,10 @@
         <f>LOOKUP(E21,'Research data'!F17:K17,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J21" s="82"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="31"/>
       <c r="C22" s="26" t="s">
         <v>8</v>
@@ -2813,10 +2803,10 @@
         <f>LOOKUP(E22,'Research data'!F18:K18,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J22" s="82"/>
+      <c r="J22" s="80"/>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="31"/>
       <c r="C23" s="26" t="s">
         <v>36</v>
@@ -2834,10 +2824,10 @@
         <f>LOOKUP(E23,'Research data'!F19:K19,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J23" s="82"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="31"/>
       <c r="C24" s="26" t="s">
         <v>37</v>
@@ -2855,10 +2845,10 @@
         <f>LOOKUP(E24,'Research data'!F20:K20,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J24" s="82"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="31"/>
       <c r="C25" s="26" t="s">
         <v>38</v>
@@ -2878,9 +2868,9 @@
         <f>LOOKUP(E25,'Research data'!F21:K21,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J25" s="82"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="80"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="31"/>
       <c r="C26" s="26" t="s">
         <v>39</v>
@@ -2900,456 +2890,446 @@
         <f>LOOKUP(E26,'Research data'!F22:K22,'Research data'!F$3:$K$3)</f>
         <v>DHPA</v>
       </c>
-      <c r="J26" s="82"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="80"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="31"/>
-      <c r="C27" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="38">
-        <f>'Research data'!E23</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="25" t="str">
-        <f>LOOKUP(E27,'Research data'!F23:K23,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J27" s="82"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="59"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="80"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="31"/>
-      <c r="C28" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="38">
-        <f>'Research data'!E24</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="25" t="str">
-        <f>LOOKUP(E28,'Research data'!F24:K24,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J28" s="82"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="77"/>
+      <c r="E28" s="26"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="80"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="31"/>
-      <c r="C29" s="61" t="s">
-        <v>60</v>
+      <c r="C29" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="38">
+        <v>30</v>
+      </c>
+      <c r="E29" s="100">
         <f>'Research data'!E25</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>65</v>
+        <v>9246.4</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="25" t="str">
         <f>LOOKUP(E29,'Research data'!F25:K25,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J29" s="82"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>DHPA</v>
+      </c>
+      <c r="J29" s="80"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="31"/>
-      <c r="C30" s="61" t="s">
-        <v>61</v>
+      <c r="C30" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="38">
+        <v>30</v>
+      </c>
+      <c r="E30" s="100">
         <f>'Research data'!E26</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="25" t="str">
         <f>LOOKUP(E30,'Research data'!F26:K26,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J30" s="82"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="80"/>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="31"/>
-      <c r="C31" s="90" t="s">
-        <v>62</v>
+      <c r="C31" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="38">
+        <v>30</v>
+      </c>
+      <c r="E31" s="100">
         <f>'Research data'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>67</v>
+        <v>1500</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="25" t="str">
         <f>LOOKUP(E31,'Research data'!F27:K27,'Research data'!F$3:$K$3)</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J31" s="80"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
+      <c r="B32" s="31"/>
+      <c r="C32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="100">
+        <f>'Research data'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="25" t="str">
+        <f>LOOKUP(E32,'Research data'!F28:K28,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J31" s="82"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="31"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="82"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="80"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="31"/>
-      <c r="C33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="26"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="82"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="100">
+        <f>'Research data'!E29</f>
+        <v>100</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="25" t="str">
+        <f>LOOKUP(E33,'Research data'!F29:K29,'Research data'!F$3:$K$3)</f>
+        <v>DHPA</v>
+      </c>
+      <c r="J33" s="80"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="31"/>
       <c r="C34" s="26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="102">
+        <v>49</v>
+      </c>
+      <c r="E34" s="100">
         <f>'Research data'!E30</f>
-        <v>9246.4</v>
+        <v>0</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="25" t="str">
         <f>LOOKUP(E34,'Research data'!F30:K30,'Research data'!F$3:$K$3)</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J34" s="82"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Quintel WD</v>
+      </c>
+      <c r="J34" s="80"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="31"/>
       <c r="C35" s="26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="102">
+        <v>49</v>
+      </c>
+      <c r="E35" s="100">
         <f>'Research data'!E31</f>
         <v>0</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="25" t="str">
         <f>LOOKUP(E35,'Research data'!F31:K31,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J35" s="82"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="80"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="31"/>
       <c r="C36" s="26" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="102">
+        <v>2</v>
+      </c>
+      <c r="E36" s="100">
         <f>'Research data'!E32</f>
-        <v>1500</v>
+        <v>0.04</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="25" t="str">
         <f>LOOKUP(E36,'Research data'!F32:K32,'Research data'!F$3:$K$3)</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J36" s="82"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Quintel WD</v>
+      </c>
+      <c r="J36" s="80"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="31"/>
       <c r="C37" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="102">
+        <v>9</v>
+      </c>
+      <c r="E37" s="100">
         <f>'Research data'!E33</f>
         <v>0</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="25" t="str">
         <f>LOOKUP(E37,'Research data'!F33:K33,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J37" s="82"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
+      <c r="J37" s="80"/>
+    </row>
+    <row r="38" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
+      <c r="B38" s="16"/>
       <c r="C38" s="26" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="102">
+        <v>133</v>
+      </c>
+      <c r="E38" s="100">
         <f>'Research data'!E34</f>
-        <v>100</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="25" t="str">
         <f>LOOKUP(E38,'Research data'!F34:K34,'Research data'!F$3:$K$3)</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J38" s="82"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>??</v>
+      </c>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="31"/>
-      <c r="C39" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="102">
-        <f>'Research data'!E35</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="27"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="25" t="str">
-        <f>LOOKUP(E39,'Research data'!F35:K35,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J39" s="82"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="26"/>
+      <c r="J39" s="80"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="31"/>
-      <c r="C40" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="102">
-        <f>'Research data'!E36</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="25" t="str">
-        <f>LOOKUP(E40,'Research data'!F36:K36,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J40" s="82"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="80"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="31"/>
       <c r="C41" s="26" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="102">
+        <v>3</v>
+      </c>
+      <c r="E41" s="100">
         <f>'Research data'!E37</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="25" t="str">
         <f>LOOKUP(E41,'Research data'!F37:K37,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J41" s="82"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="80"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="31"/>
       <c r="C42" s="26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="102">
+        <v>1</v>
+      </c>
+      <c r="E42" s="100">
         <f>'Research data'!E38</f>
         <v>0</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="H42" s="27"/>
       <c r="I42" s="25" t="str">
         <f>LOOKUP(E42,'Research data'!F38:K38,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J42" s="82"/>
-    </row>
-    <row r="43" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
+      <c r="J42" s="80"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
+      <c r="B43" s="31"/>
       <c r="C43" s="26" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="102">
+        <v>1</v>
+      </c>
+      <c r="E43" s="100">
         <f>'Research data'!E39</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="27"/>
       <c r="I43" s="25" t="str">
         <f>LOOKUP(E43,'Research data'!F39:K39,'Research data'!F$3:$K$3)</f>
-        <v>??</v>
-      </c>
-      <c r="J43" s="36"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+        <v>DHPA</v>
+      </c>
+      <c r="J43" s="80"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="31"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="27"/>
+      <c r="C44" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="100">
+        <f>'Research data'!E40</f>
+        <v>0</v>
+      </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="82"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="25" t="str">
+        <f>LOOKUP(E44,'Research data'!F40:K40,'Research data'!F$3:$K$3)</f>
+        <v>Quintel WD</v>
+      </c>
+      <c r="J44" s="80"/>
+    </row>
+    <row r="45" spans="2:10" ht="17" thickBot="1">
       <c r="B45" s="31"/>
-      <c r="C45" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="82"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="100">
+        <f>'Research data'!E41</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="25" t="str">
+        <f>LOOKUP(E45,'Research data'!F41:K41,'Research data'!F$3:$K$3)</f>
+        <v>Quintel WD</v>
+      </c>
+      <c r="J45" s="80"/>
+    </row>
+    <row r="46" spans="2:10" ht="17" thickBot="1">
       <c r="B46" s="31"/>
-      <c r="C46" s="26" t="s">
-        <v>34</v>
+      <c r="C46" s="94" t="s">
+        <v>80</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="102">
+        <v>4</v>
+      </c>
+      <c r="E46" s="100">
         <f>'Research data'!E42</f>
         <v>0</v>
       </c>
-      <c r="G46" s="27" t="s">
-        <v>13</v>
-      </c>
+      <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="25" t="str">
         <f>LOOKUP(E46,'Research data'!F42:K42,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J46" s="82"/>
-    </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="80"/>
+    </row>
+    <row r="47" spans="2:10" ht="17" thickBot="1">
       <c r="B47" s="31"/>
-      <c r="C47" s="26" t="s">
-        <v>46</v>
+      <c r="C47" s="94" t="s">
+        <v>81</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="102">
+        <v>4</v>
+      </c>
+      <c r="E47" s="100">
         <f>'Research data'!E43</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="25" t="str">
         <f>LOOKUP(E47,'Research data'!F43:K43,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J47" s="82"/>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="80"/>
+    </row>
+    <row r="48" spans="2:10" ht="17" thickBot="1">
       <c r="B48" s="31"/>
-      <c r="C48" s="26" t="s">
-        <v>47</v>
+      <c r="C48" s="94" t="s">
+        <v>82</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="102">
+        <v>4</v>
+      </c>
+      <c r="E48" s="100">
         <f>'Research data'!E44</f>
-        <v>15</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>23</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="25" t="str">
         <f>LOOKUP(E48,'Research data'!F44:K44,'Research data'!F$3:$K$3)</f>
-        <v>DHPA</v>
-      </c>
-      <c r="J48" s="82"/>
-    </row>
-    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>Quintel WD</v>
+      </c>
+      <c r="J48" s="80"/>
+    </row>
+    <row r="49" spans="2:10" ht="17" thickBot="1">
       <c r="B49" s="31"/>
-      <c r="C49" s="26" t="s">
-        <v>32</v>
+      <c r="C49" s="94" t="s">
+        <v>83</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="102">
+      <c r="E49" s="100">
         <f>'Research data'!E45</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -3357,118 +3337,18 @@
         <f>LOOKUP(E49,'Research data'!F45:K45,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
-      <c r="J49" s="82"/>
-    </row>
-    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="102">
-        <f>'Research data'!E46</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="25" t="str">
-        <f>LOOKUP(E50,'Research data'!F46:K46,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J50" s="82"/>
-    </row>
-    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="102">
-        <f>'Research data'!E47</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="25" t="str">
-        <f>LOOKUP(E51,'Research data'!F47:K47,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J51" s="82"/>
-    </row>
-    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
-      <c r="C52" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="102">
-        <f>'Research data'!E48</f>
-        <v>7</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="25" t="str">
-        <f>LOOKUP(E52,'Research data'!F48:K48,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J52" s="82"/>
-    </row>
-    <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="102">
-        <f>'Research data'!E49</f>
-        <v>1.5</v>
-      </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="25" t="str">
-        <f>LOOKUP(E53,'Research data'!F49:K49,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J53" s="82"/>
-    </row>
-    <row r="54" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
-      <c r="C54" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="102">
-        <f>'Research data'!E50</f>
-        <v>7</v>
-      </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="25" t="str">
-        <f>LOOKUP(E54,'Research data'!F50:K50,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J54" s="82"/>
-    </row>
-    <row r="55" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="34"/>
+      <c r="J49" s="80"/>
+    </row>
+    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3480,1245 +3360,1120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:M52"/>
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.7109375" style="55" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="55" customWidth="1"/>
-    <col min="11" max="11" width="16" style="55" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="56" customWidth="1"/>
-    <col min="13" max="13" width="60" style="55" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="55"/>
+    <col min="1" max="2" width="3.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="53" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="16.6640625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="53" customWidth="1"/>
+    <col min="11" max="11" width="16" style="53" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="60" style="53" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="111"/>
-    </row>
-    <row r="3" spans="2:13" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B3" s="77"/>
-      <c r="C3" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="83" t="s">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="109"/>
+    </row>
+    <row r="3" spans="2:13" s="17" customFormat="1" ht="32">
+      <c r="B3" s="75"/>
+      <c r="C3" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>144</v>
+      <c r="E3" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>134</v>
       </c>
       <c r="L3" s="52"/>
-      <c r="M3" s="112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="17" customFormat="1">
       <c r="B4" s="16"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="113"/>
-    </row>
-    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="111"/>
+    </row>
+    <row r="5" spans="2:13" ht="17" thickBot="1">
+      <c r="B5" s="58"/>
       <c r="C5" s="10" t="str">
         <f>Dashboard!C9</f>
         <v>Technical</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
-    </row>
-    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
-      <c r="C6" s="139" t="str">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
+    </row>
+    <row r="6" spans="2:13" ht="17" thickBot="1">
+      <c r="B6" s="58"/>
+      <c r="C6" s="137" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D6" s="139" t="str">
+      <c r="D6" s="137" t="str">
         <f>Dashboard!D10</f>
         <v>-</v>
       </c>
-      <c r="E6" s="140">
+      <c r="E6" s="138">
         <f>K6</f>
         <v>0.77777777777777801</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="140">
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138">
         <v>0.77777777777777801</v>
       </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="114"/>
-    </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="139" t="str">
+      <c r="L6" s="139"/>
+      <c r="M6" s="112"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1">
+      <c r="B7" s="58"/>
+      <c r="C7" s="137" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D7" s="139" t="str">
+      <c r="D7" s="137" t="str">
         <f>Dashboard!D11</f>
         <v>-</v>
       </c>
-      <c r="E7" s="140">
+      <c r="E7" s="138">
         <f>K7</f>
         <v>0.22222222222222199</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138">
         <v>0.22222222222222199</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="114"/>
-    </row>
-    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="139" t="str">
+      <c r="L7" s="139"/>
+      <c r="M7" s="112"/>
+    </row>
+    <row r="8" spans="2:13" ht="17" thickBot="1">
+      <c r="B8" s="58"/>
+      <c r="C8" s="137" t="str">
         <f>Dashboard!C12</f>
         <v>output.cooling</v>
       </c>
-      <c r="D8" s="139" t="str">
+      <c r="D8" s="137" t="str">
         <f>Dashboard!D12</f>
         <v>-</v>
       </c>
-      <c r="E8" s="140">
+      <c r="E8" s="138">
         <f>K8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="140">
-        <v>0</v>
-      </c>
-      <c r="L8" s="141"/>
-      <c r="M8" s="114"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="139" t="str">
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="138">
+        <v>0</v>
+      </c>
+      <c r="L8" s="139"/>
+      <c r="M8" s="112"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1">
+      <c r="B9" s="58"/>
+      <c r="C9" s="137" t="str">
         <f>Dashboard!C13</f>
         <v>output.useable_heat</v>
       </c>
-      <c r="D9" s="139" t="str">
+      <c r="D9" s="137" t="str">
         <f>Dashboard!D13</f>
         <v>-</v>
       </c>
-      <c r="E9" s="140">
+      <c r="E9" s="138">
         <f>K9</f>
         <v>1</v>
       </c>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140">
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138">
         <v>1</v>
       </c>
-      <c r="L9" s="141"/>
-      <c r="M9" s="114"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="139" t="str">
+      <c r="L9" s="139"/>
+      <c r="M9" s="112"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="58"/>
+      <c r="C10" s="137" t="str">
         <f>Dashboard!C14</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D10" s="139" t="str">
+      <c r="D10" s="137" t="str">
         <f>Dashboard!D14</f>
         <v>-</v>
       </c>
-      <c r="E10" s="140">
+      <c r="E10" s="138">
         <f>F10</f>
         <v>3.25</v>
       </c>
-      <c r="F10" s="142">
+      <c r="F10" s="140">
         <f>Notes!E14</f>
         <v>3.25</v>
       </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="114"/>
-    </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="139" t="str">
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="112"/>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1">
+      <c r="B11" s="58"/>
+      <c r="C11" s="137" t="str">
         <f>Dashboard!C15</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="D11" s="139" t="str">
+      <c r="D11" s="137" t="str">
         <f>Dashboard!D15</f>
         <v>-</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="142">
         <f>G11</f>
         <v>2.5889967637540458E-3</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="145">
+      <c r="F11" s="141"/>
+      <c r="G11" s="143">
         <f>Notes!E59</f>
         <v>2.5889967637540458E-3</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="114"/>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="139" t="str">
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="137" t="str">
         <f>Dashboard!C16</f>
         <v>fever.cop_per_degree</v>
       </c>
-      <c r="D12" s="139" t="str">
+      <c r="D12" s="137" t="str">
         <f>Dashboard!D16</f>
         <v>-</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="138">
         <f>F12</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F12" s="142">
+      <c r="F12" s="140">
         <f>Notes!E15</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="114"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="139" t="str">
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="112"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="137" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="D13" s="139" t="str">
+      <c r="D13" s="137" t="str">
         <f>Dashboard!D17</f>
         <v>MWh</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="138">
         <f>G13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="154">
+      <c r="F13" s="141"/>
+      <c r="G13" s="152">
         <f>Notes!E60</f>
         <v>0</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="152">
         <f>Notes!E29</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="152">
         <f>Notes!E37</f>
         <v>3.3E-3</v>
       </c>
-      <c r="J13" s="139"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="114"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="139" t="str">
+      <c r="J13" s="137"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="112"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="137" t="str">
         <f>Dashboard!C18</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D14" s="139" t="str">
+      <c r="D14" s="137" t="str">
         <f>Dashboard!D18</f>
         <v>euro/MWh</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="138">
         <f>K14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="140">
-        <v>0</v>
-      </c>
-      <c r="L14" s="141"/>
-      <c r="M14" s="153" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="139" t="str">
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138">
+        <v>0</v>
+      </c>
+      <c r="L14" s="139"/>
+      <c r="M14" s="151" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="58"/>
+      <c r="C15" s="137" t="str">
         <f>Dashboard!C19</f>
         <v>availability</v>
       </c>
-      <c r="D15" s="139" t="str">
+      <c r="D15" s="137" t="str">
         <f>Dashboard!D19</f>
         <v>-</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="138">
         <f t="shared" ref="E15:E21" si="0">K15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="140">
-        <v>0</v>
-      </c>
-      <c r="L15" s="141"/>
-      <c r="M15" s="114"/>
-    </row>
-    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="139" t="str">
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138">
+        <v>0</v>
+      </c>
+      <c r="L15" s="139"/>
+      <c r="M15" s="112"/>
+    </row>
+    <row r="16" spans="2:13" ht="17" thickBot="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="137" t="str">
         <f>Dashboard!C20</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D16" s="139" t="str">
+      <c r="D16" s="137" t="str">
         <f>Dashboard!D20</f>
         <v>-</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="140">
-        <v>0</v>
-      </c>
-      <c r="L16" s="141"/>
-      <c r="M16" s="114"/>
-    </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="139" t="str">
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138">
+        <v>0</v>
+      </c>
+      <c r="L16" s="139"/>
+      <c r="M16" s="112"/>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="137" t="str">
         <f>Dashboard!C21</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D17" s="139" t="str">
+      <c r="D17" s="137" t="str">
         <f>Dashboard!D21</f>
         <v>-</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="140">
-        <v>0</v>
-      </c>
-      <c r="L17" s="141"/>
-      <c r="M17" s="114"/>
-    </row>
-    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="139" t="str">
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138">
+        <v>0</v>
+      </c>
+      <c r="L17" s="139"/>
+      <c r="M17" s="112"/>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickBot="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="137" t="str">
         <f>Dashboard!C22</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D18" s="139" t="str">
+      <c r="D18" s="137" t="str">
         <f>Dashboard!D22</f>
         <v>-</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="138">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="140">
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138">
         <v>1</v>
       </c>
-      <c r="L18" s="141"/>
-      <c r="M18" s="114"/>
-    </row>
-    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="139" t="str">
+      <c r="L18" s="139"/>
+      <c r="M18" s="112"/>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1">
+      <c r="B19" s="58"/>
+      <c r="C19" s="137" t="str">
         <f>Dashboard!C23</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D19" s="139" t="str">
+      <c r="D19" s="137" t="str">
         <f>Dashboard!D23</f>
         <v>-</v>
       </c>
-      <c r="E19" s="140">
+      <c r="E19" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="140">
-        <v>0</v>
-      </c>
-      <c r="L19" s="141"/>
-      <c r="M19" s="114"/>
-    </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="139" t="str">
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138">
+        <v>0</v>
+      </c>
+      <c r="L19" s="139"/>
+      <c r="M19" s="112"/>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="58"/>
+      <c r="C20" s="137" t="str">
         <f>Dashboard!C24</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D20" s="139" t="str">
+      <c r="D20" s="137" t="str">
         <f>Dashboard!D24</f>
         <v>-</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="140">
-        <v>0</v>
-      </c>
-      <c r="L20" s="141"/>
-      <c r="M20" s="114"/>
-    </row>
-    <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="139" t="str">
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138">
+        <v>0</v>
+      </c>
+      <c r="L20" s="139"/>
+      <c r="M20" s="112"/>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="58"/>
+      <c r="C21" s="137" t="str">
         <f>Dashboard!C25</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D21" s="139" t="str">
+      <c r="D21" s="137" t="str">
         <f>Dashboard!D25</f>
         <v>MW</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="140">
-        <v>0</v>
-      </c>
-      <c r="L21" s="141"/>
-      <c r="M21" s="114"/>
-    </row>
-    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="139" t="str">
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138">
+        <v>0</v>
+      </c>
+      <c r="L21" s="139"/>
+      <c r="M21" s="112"/>
+    </row>
+    <row r="22" spans="2:13" ht="17" thickBot="1">
+      <c r="B22" s="58"/>
+      <c r="C22" s="137" t="str">
         <f>Dashboard!C26</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D22" s="139" t="str">
+      <c r="D22" s="137" t="str">
         <f>Dashboard!D26</f>
         <v>MW</v>
       </c>
-      <c r="E22" s="142">
+      <c r="E22" s="140">
         <f>G22</f>
         <v>0.01</v>
       </c>
-      <c r="F22" s="143"/>
-      <c r="G22" s="146">
+      <c r="F22" s="141"/>
+      <c r="G22" s="144">
         <f>Notes!E56</f>
         <v>0.01</v>
       </c>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="114"/>
-    </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="139" t="str">
-        <f>Dashboard!C27</f>
-        <v>simult_sd</v>
-      </c>
-      <c r="D23" s="139" t="str">
-        <f>Dashboard!D27</f>
-        <v>-</v>
-      </c>
-      <c r="E23" s="140">
-        <f>K23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="140">
-        <v>0</v>
-      </c>
-      <c r="L23" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="112"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
       <c r="M23" s="114"/>
     </row>
-    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="139" t="str">
+    <row r="24" spans="2:13" ht="17" thickBot="1">
+      <c r="B24" s="58"/>
+      <c r="C24" s="10" t="str">
         <f>Dashboard!C28</f>
-        <v>simult_se</v>
-      </c>
-      <c r="D24" s="139" t="str">
+        <v>Cost</v>
+      </c>
+      <c r="D24" s="59">
         <f>Dashboard!D28</f>
-        <v>-</v>
-      </c>
-      <c r="E24" s="140">
-        <f>K24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="140">
-        <v>0</v>
-      </c>
-      <c r="L24" s="141"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
       <c r="M24" s="114"/>
     </row>
-    <row r="25" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="139" t="str">
+    <row r="25" spans="2:13" ht="17" thickBot="1">
+      <c r="B25" s="58"/>
+      <c r="C25" s="137" t="str">
         <f>Dashboard!C29</f>
-        <v>simult_wd</v>
-      </c>
-      <c r="D25" s="139" t="str">
+        <v>initial_investment</v>
+      </c>
+      <c r="D25" s="137" t="str">
         <f>Dashboard!D29</f>
-        <v>-</v>
-      </c>
-      <c r="E25" s="140">
-        <f>K25</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="140">
-        <v>1</v>
-      </c>
-      <c r="L25" s="141"/>
-      <c r="M25" s="114"/>
-    </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
-      <c r="C26" s="139" t="str">
-        <f>Dashboard!C30</f>
-        <v>simult_we</v>
-      </c>
-      <c r="D26" s="139" t="str">
-        <f>Dashboard!D30</f>
-        <v>-</v>
-      </c>
-      <c r="E26" s="140">
-        <f>K26</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="140">
-        <v>1</v>
-      </c>
-      <c r="L26" s="141"/>
-      <c r="M26" s="114"/>
-    </row>
-    <row r="27" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="139" t="str">
-        <f>Dashboard!C31</f>
-        <v>peak_load_units_present</v>
-      </c>
-      <c r="D27" s="139" t="str">
-        <f>Dashboard!D31</f>
-        <v>-</v>
-      </c>
-      <c r="E27" s="140">
-        <f>K27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="140">
-        <v>0</v>
-      </c>
-      <c r="L27" s="141"/>
-      <c r="M27" s="114"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="116"/>
-    </row>
-    <row r="29" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="10" t="str">
-        <f>Dashboard!C33</f>
-        <v>Cost</v>
-      </c>
-      <c r="D29" s="61">
-        <f>Dashboard!D33</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
-    </row>
-    <row r="30" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="139" t="str">
-        <f>Dashboard!C34</f>
-        <v>initial_investment</v>
-      </c>
-      <c r="D30" s="139" t="str">
-        <f>Dashboard!D34</f>
         <v>euro</v>
       </c>
-      <c r="E30" s="147">
-        <f>G30</f>
+      <c r="E25" s="145">
+        <f>G25</f>
         <v>9246.4</v>
       </c>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149">
+      <c r="F25" s="146"/>
+      <c r="G25" s="147">
         <f>Notes!E53</f>
         <v>9246.4</v>
       </c>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="114"/>
-    </row>
-    <row r="31" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="139" t="str">
-        <f>Dashboard!C35</f>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="112"/>
+    </row>
+    <row r="26" spans="2:13" ht="17" thickBot="1">
+      <c r="B26" s="58"/>
+      <c r="C26" s="137" t="str">
+        <f>Dashboard!C30</f>
         <v>ccs_investment</v>
       </c>
-      <c r="D31" s="139" t="str">
-        <f>Dashboard!D35</f>
+      <c r="D26" s="137" t="str">
+        <f>Dashboard!D30</f>
         <v>euro</v>
       </c>
-      <c r="E31" s="140">
-        <f>K31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="140">
-        <v>0</v>
-      </c>
-      <c r="L31" s="141"/>
-      <c r="M31" s="114"/>
-    </row>
-    <row r="32" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="139" t="str">
-        <f>Dashboard!C36</f>
+      <c r="E26" s="138">
+        <f>K26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138">
+        <v>0</v>
+      </c>
+      <c r="L26" s="139"/>
+      <c r="M26" s="112"/>
+    </row>
+    <row r="27" spans="2:13" ht="17" thickBot="1">
+      <c r="B27" s="58"/>
+      <c r="C27" s="137" t="str">
+        <f>Dashboard!C31</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D32" s="139" t="str">
-        <f>Dashboard!D36</f>
+      <c r="D27" s="137" t="str">
+        <f>Dashboard!D31</f>
         <v>euro</v>
       </c>
-      <c r="E32" s="147">
-        <f>G32</f>
+      <c r="E27" s="145">
+        <f>G27</f>
         <v>1500</v>
       </c>
-      <c r="F32" s="150"/>
-      <c r="G32" s="149">
+      <c r="F27" s="148"/>
+      <c r="G27" s="147">
         <f>Notes!E54</f>
         <v>1500</v>
       </c>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="114"/>
-    </row>
-    <row r="33" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="139" t="str">
-        <f>Dashboard!C37</f>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="112"/>
+    </row>
+    <row r="28" spans="2:13" ht="17" thickBot="1">
+      <c r="B28" s="58"/>
+      <c r="C28" s="137" t="str">
+        <f>Dashboard!C32</f>
         <v>decommissioning_costs</v>
       </c>
-      <c r="D33" s="139" t="str">
-        <f>Dashboard!D37</f>
+      <c r="D28" s="137" t="str">
+        <f>Dashboard!D32</f>
         <v>euro</v>
       </c>
-      <c r="E33" s="140">
-        <f>K33</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="140">
-        <v>0</v>
-      </c>
-      <c r="L33" s="141"/>
-      <c r="M33" s="114"/>
-    </row>
-    <row r="34" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="60"/>
-      <c r="C34" s="139" t="str">
-        <f>Dashboard!C38</f>
+      <c r="E28" s="138">
+        <f>K28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138">
+        <v>0</v>
+      </c>
+      <c r="L28" s="139"/>
+      <c r="M28" s="112"/>
+    </row>
+    <row r="29" spans="2:13" ht="17" thickBot="1">
+      <c r="B29" s="58"/>
+      <c r="C29" s="137" t="str">
+        <f>Dashboard!C33</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D34" s="139" t="str">
-        <f>Dashboard!D38</f>
+      <c r="D29" s="137" t="str">
+        <f>Dashboard!D33</f>
         <v>euro/year</v>
       </c>
-      <c r="E34" s="147">
-        <f>G34</f>
+      <c r="E29" s="145">
+        <f>G29</f>
         <v>100</v>
       </c>
-      <c r="F34" s="148"/>
-      <c r="G34" s="149">
+      <c r="F29" s="146"/>
+      <c r="G29" s="147">
         <f>Notes!E55</f>
         <v>100</v>
       </c>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="112"/>
+    </row>
+    <row r="30" spans="2:13" ht="17" thickBot="1">
+      <c r="B30" s="58"/>
+      <c r="C30" s="137" t="str">
+        <f>Dashboard!C34</f>
+        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
+      </c>
+      <c r="D30" s="137" t="str">
+        <f>Dashboard!D34</f>
+        <v>euro/FLH</v>
+      </c>
+      <c r="E30" s="138">
+        <f>K30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138">
+        <v>0</v>
+      </c>
+      <c r="L30" s="139"/>
+      <c r="M30" s="112"/>
+    </row>
+    <row r="31" spans="2:13" ht="17" thickBot="1">
+      <c r="B31" s="58"/>
+      <c r="C31" s="137" t="str">
+        <f>Dashboard!C35</f>
+        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
+      </c>
+      <c r="D31" s="137" t="str">
+        <f>Dashboard!D35</f>
+        <v>euro/FLH</v>
+      </c>
+      <c r="E31" s="138">
+        <f>K31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138">
+        <v>0</v>
+      </c>
+      <c r="L31" s="139"/>
+      <c r="M31" s="112"/>
+    </row>
+    <row r="32" spans="2:13" ht="17" thickBot="1">
+      <c r="B32" s="58"/>
+      <c r="C32" s="137" t="str">
+        <f>Dashboard!C36</f>
+        <v>wacc</v>
+      </c>
+      <c r="D32" s="137" t="str">
+        <f>Dashboard!D36</f>
+        <v>%</v>
+      </c>
+      <c r="E32" s="138">
+        <f>K32</f>
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138">
+        <v>0.04</v>
+      </c>
+      <c r="L32" s="139"/>
+      <c r="M32" s="112"/>
+    </row>
+    <row r="33" spans="2:13" ht="17" thickBot="1">
+      <c r="B33" s="58"/>
+      <c r="C33" s="137" t="str">
+        <f>Dashboard!C37</f>
+        <v>takes_part_in_ets</v>
+      </c>
+      <c r="D33" s="137" t="str">
+        <f>Dashboard!D37</f>
+        <v>yes=1, no=0</v>
+      </c>
+      <c r="E33" s="138">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138">
+        <v>0</v>
+      </c>
+      <c r="L33" s="139"/>
+      <c r="M33" s="112"/>
+    </row>
+    <row r="34" spans="2:13" ht="17" thickBot="1">
+      <c r="B34" s="58"/>
+      <c r="C34" s="137" t="str">
+        <f>Dashboard!C38</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D34" s="137" t="str">
+        <f>Dashboard!D38</f>
+        <v>eur0/MWh</v>
+      </c>
+      <c r="E34" s="145">
+        <f>J34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="148"/>
       <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="114"/>
-    </row>
-    <row r="35" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="139" t="str">
-        <f>Dashboard!C39</f>
-        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
-      </c>
-      <c r="D35" s="139" t="str">
-        <f>Dashboard!D39</f>
-        <v>euro/FLH</v>
-      </c>
-      <c r="E35" s="140">
+      <c r="J34" s="147">
+        <f>Notes!E62</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="112"/>
+    </row>
+    <row r="35" spans="2:13" ht="17" thickBot="1">
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="97">
         <f>K35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="140">
-        <v>0</v>
-      </c>
-      <c r="L35" s="141"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
       <c r="M35" s="114"/>
     </row>
-    <row r="36" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="60"/>
-      <c r="C36" s="139" t="str">
+    <row r="36" spans="2:13" ht="17" thickBot="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="10" t="str">
         <f>Dashboard!C40</f>
-        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
-      </c>
-      <c r="D36" s="139" t="str">
-        <f>Dashboard!D40</f>
-        <v>euro/FLH</v>
-      </c>
-      <c r="E36" s="140">
-        <f>K36</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="140">
-        <v>0</v>
-      </c>
-      <c r="L36" s="141"/>
+        <v>Other</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
       <c r="M36" s="114"/>
     </row>
-    <row r="37" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="60"/>
-      <c r="C37" s="139" t="str">
+    <row r="37" spans="2:13" ht="17" thickBot="1">
+      <c r="B37" s="58"/>
+      <c r="C37" s="137" t="str">
         <f>Dashboard!C41</f>
-        <v>wacc</v>
-      </c>
-      <c r="D37" s="139" t="str">
+        <v>land_use_per_unit</v>
+      </c>
+      <c r="D37" s="137" t="str">
         <f>Dashboard!D41</f>
-        <v>%</v>
-      </c>
-      <c r="E37" s="140">
-        <f>K37</f>
-        <v>0.04</v>
-      </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="140">
-        <v>0.04</v>
-      </c>
-      <c r="L37" s="141"/>
-      <c r="M37" s="114"/>
-    </row>
-    <row r="38" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="60"/>
-      <c r="C38" s="139" t="str">
+        <v>km2</v>
+      </c>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="138">
+        <v>0</v>
+      </c>
+      <c r="L37" s="139"/>
+      <c r="M37" s="112"/>
+    </row>
+    <row r="38" spans="2:13" ht="17" thickBot="1">
+      <c r="B38" s="58"/>
+      <c r="C38" s="137" t="str">
         <f>Dashboard!C42</f>
-        <v>takes_part_in_ets</v>
-      </c>
-      <c r="D38" s="139" t="str">
+        <v>construction_time</v>
+      </c>
+      <c r="D38" s="137" t="str">
         <f>Dashboard!D42</f>
-        <v>yes=1, no=0</v>
-      </c>
-      <c r="E38" s="140">
+        <v>years</v>
+      </c>
+      <c r="E38" s="138">
         <f>K38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="140">
-        <v>0</v>
-      </c>
-      <c r="L38" s="141"/>
-      <c r="M38" s="114"/>
-    </row>
-    <row r="39" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="60"/>
-      <c r="C39" s="139" t="str">
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="138">
+        <v>0</v>
+      </c>
+      <c r="L38" s="139"/>
+      <c r="M38" s="112"/>
+    </row>
+    <row r="39" spans="2:13" ht="17" thickBot="1">
+      <c r="B39" s="58"/>
+      <c r="C39" s="137" t="str">
         <f>Dashboard!C43</f>
-        <v>storage.cost_per_mwh</v>
-      </c>
-      <c r="D39" s="139" t="str">
+        <v>technical_lifetime</v>
+      </c>
+      <c r="D39" s="137" t="str">
         <f>Dashboard!D43</f>
-        <v>eur0/MWh</v>
-      </c>
-      <c r="E39" s="147">
-        <f>J39</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="149">
-        <f>Notes!E62</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="141"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="114"/>
-    </row>
-    <row r="40" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="99">
-        <f>K40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="116"/>
-    </row>
-    <row r="41" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="60"/>
-      <c r="C41" s="10" t="str">
-        <f>Dashboard!C45</f>
-        <v>Other</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="116"/>
-    </row>
-    <row r="42" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="60"/>
-      <c r="C42" s="139" t="str">
-        <f>Dashboard!C46</f>
-        <v>land_use_per_unit</v>
-      </c>
-      <c r="D42" s="139" t="str">
-        <f>Dashboard!D46</f>
-        <v>km2</v>
-      </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="140">
-        <v>0</v>
-      </c>
-      <c r="L42" s="141"/>
-      <c r="M42" s="114"/>
-    </row>
-    <row r="43" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="60"/>
-      <c r="C43" s="139" t="str">
-        <f>Dashboard!C47</f>
-        <v>construction_time</v>
-      </c>
-      <c r="D43" s="139" t="str">
-        <f>Dashboard!D47</f>
         <v>years</v>
       </c>
-      <c r="E43" s="140">
-        <f>K43</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="140">
-        <v>0</v>
-      </c>
-      <c r="L43" s="141"/>
-      <c r="M43" s="114"/>
-    </row>
-    <row r="44" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="139" t="str">
-        <f>Dashboard!C48</f>
-        <v>technical_lifetime</v>
-      </c>
-      <c r="D44" s="139" t="str">
-        <f>Dashboard!D48</f>
-        <v>years</v>
-      </c>
-      <c r="E44" s="151">
-        <f>G44</f>
+      <c r="E39" s="149">
+        <f>G39</f>
         <v>15</v>
       </c>
-      <c r="F44" s="139"/>
-      <c r="G44" s="152">
+      <c r="F39" s="137"/>
+      <c r="G39" s="150">
         <f>Notes!E50</f>
         <v>15</v>
       </c>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="141"/>
-      <c r="L44" s="141"/>
-      <c r="M44" s="114"/>
-    </row>
-    <row r="45" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="139" t="str">
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="112"/>
+    </row>
+    <row r="40" spans="2:13" ht="17" thickBot="1">
+      <c r="B40" s="58"/>
+      <c r="C40" s="137" t="str">
+        <f>Dashboard!C44</f>
+        <v>free_co2_factor</v>
+      </c>
+      <c r="D40" s="137" t="str">
+        <f>Dashboard!D44</f>
+        <v>-</v>
+      </c>
+      <c r="E40" s="138">
+        <f t="shared" ref="E40:E45" si="1">K40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="138">
+        <v>0</v>
+      </c>
+      <c r="L40" s="139"/>
+      <c r="M40" s="112"/>
+    </row>
+    <row r="41" spans="2:13" ht="17" thickBot="1">
+      <c r="B41" s="58"/>
+      <c r="C41" s="137" t="str">
+        <f>Dashboard!C45</f>
+        <v>hours_prep_nl</v>
+      </c>
+      <c r="D41" s="137" t="str">
+        <f>Dashboard!D45</f>
+        <v>-</v>
+      </c>
+      <c r="E41" s="138">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="138">
+        <v>0</v>
+      </c>
+      <c r="L41" s="139"/>
+      <c r="M41" s="112"/>
+    </row>
+    <row r="42" spans="2:13" ht="17" thickBot="1">
+      <c r="B42" s="58"/>
+      <c r="C42" s="137" t="str">
+        <f>Dashboard!C46</f>
+        <v>hours_prod_nl</v>
+      </c>
+      <c r="D42" s="137" t="str">
+        <f>Dashboard!D46</f>
+        <v>-</v>
+      </c>
+      <c r="E42" s="138">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="138">
+        <v>0</v>
+      </c>
+      <c r="L42" s="139"/>
+      <c r="M42" s="112"/>
+    </row>
+    <row r="43" spans="2:13" ht="17" thickBot="1">
+      <c r="B43" s="58"/>
+      <c r="C43" s="137" t="str">
+        <f>Dashboard!C47</f>
+        <v>hours_place_nl</v>
+      </c>
+      <c r="D43" s="137" t="str">
+        <f>Dashboard!D47</f>
+        <v>-</v>
+      </c>
+      <c r="E43" s="138">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="138">
+        <v>7</v>
+      </c>
+      <c r="L43" s="139"/>
+      <c r="M43" s="112"/>
+    </row>
+    <row r="44" spans="2:13" ht="17" thickBot="1">
+      <c r="B44" s="58"/>
+      <c r="C44" s="137" t="str">
+        <f>Dashboard!C48</f>
+        <v>hours_maint_nl</v>
+      </c>
+      <c r="D44" s="137" t="str">
+        <f>Dashboard!D48</f>
+        <v>-</v>
+      </c>
+      <c r="E44" s="138">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="138">
+        <v>1.5</v>
+      </c>
+      <c r="L44" s="139"/>
+      <c r="M44" s="112"/>
+    </row>
+    <row r="45" spans="2:13" ht="17" thickBot="1">
+      <c r="B45" s="58"/>
+      <c r="C45" s="137" t="str">
         <f>Dashboard!C49</f>
-        <v>free_co2_factor</v>
-      </c>
-      <c r="D45" s="139" t="str">
+        <v>hours_remov_nl</v>
+      </c>
+      <c r="D45" s="137" t="str">
         <f>Dashboard!D49</f>
         <v>-</v>
       </c>
-      <c r="E45" s="140">
-        <f t="shared" ref="E45:E50" si="1">K45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="140">
-        <v>0</v>
-      </c>
-      <c r="L45" s="141"/>
-      <c r="M45" s="114"/>
-    </row>
-    <row r="46" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="139" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prep_nl</v>
-      </c>
-      <c r="D46" s="139" t="str">
-        <f>Dashboard!D50</f>
-        <v>-</v>
-      </c>
-      <c r="E46" s="140">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="140">
-        <v>0</v>
-      </c>
-      <c r="L46" s="141"/>
-      <c r="M46" s="114"/>
-    </row>
-    <row r="47" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
-      <c r="C47" s="139" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="D47" s="139" t="str">
-        <f>Dashboard!D51</f>
-        <v>-</v>
-      </c>
-      <c r="E47" s="140">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="140">
-        <v>0</v>
-      </c>
-      <c r="L47" s="141"/>
-      <c r="M47" s="114"/>
-    </row>
-    <row r="48" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="60"/>
-      <c r="C48" s="139" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="D48" s="139" t="str">
-        <f>Dashboard!D52</f>
-        <v>-</v>
-      </c>
-      <c r="E48" s="140">
+      <c r="E45" s="138">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="140">
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="138">
         <v>7</v>
       </c>
-      <c r="L48" s="141"/>
-      <c r="M48" s="114"/>
-    </row>
-    <row r="49" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="60"/>
-      <c r="C49" s="139" t="str">
-        <f>Dashboard!C53</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="D49" s="139" t="str">
-        <f>Dashboard!D53</f>
-        <v>-</v>
-      </c>
-      <c r="E49" s="140">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="140">
-        <v>1.5</v>
-      </c>
-      <c r="L49" s="141"/>
-      <c r="M49" s="114"/>
-    </row>
-    <row r="50" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="60"/>
-      <c r="C50" s="139" t="str">
-        <f>Dashboard!C54</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D50" s="139" t="str">
-        <f>Dashboard!D54</f>
-        <v>-</v>
-      </c>
-      <c r="E50" s="140">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="140">
-        <v>7</v>
-      </c>
-      <c r="L50" s="141"/>
-      <c r="M50" s="114"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="116"/>
-    </row>
-    <row r="52" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="120"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="112"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="114"/>
+    </row>
+    <row r="47" spans="2:13" ht="17" thickBot="1">
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4727,8 +4482,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K53"/>
@@ -4737,22 +4492,22 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="39" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="75.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="39"/>
+    <col min="1" max="1" width="3.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="39" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="75.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -4762,9 +4517,9 @@
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="43"/>
-      <c r="K2" s="103"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="44"/>
       <c r="C3" s="45" t="s">
         <v>20</v>
@@ -4776,9 +4531,9 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="46"/>
-      <c r="K3" s="104"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="44"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -4788,9 +4543,9 @@
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="104"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="102"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="49"/>
       <c r="C5" s="50" t="s">
         <v>27</v>
@@ -4806,19 +4561,19 @@
         <v>28</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="44"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -4828,746 +4583,746 @@
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="104"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="102"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="44"/>
-      <c r="C7" s="124" t="str">
+      <c r="C7" s="122" t="str">
         <f>Dashboard!C14</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="125">
+      <c r="D7" s="123"/>
+      <c r="E7" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="123">
         <v>2015</v>
       </c>
-      <c r="H7" s="125">
+      <c r="H7" s="123">
         <v>2015</v>
       </c>
-      <c r="I7" s="126">
+      <c r="I7" s="124">
         <v>42948</v>
       </c>
-      <c r="J7" s="124" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="127"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="125"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="44"/>
-      <c r="C8" s="124" t="str">
+      <c r="C8" s="122" t="str">
         <f>Dashboard!C16</f>
         <v>fever.cop_per_degree</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="127"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="125"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="44"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="127"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="126"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="125"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="44"/>
-      <c r="C10" s="124" t="str">
+      <c r="C10" s="122" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="125">
+      <c r="D10" s="123"/>
+      <c r="E10" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="123">
         <v>2010</v>
       </c>
-      <c r="H10" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="126">
+      <c r="H10" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="124">
         <v>42948</v>
       </c>
-      <c r="J10" s="129" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="127"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="125"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="44"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="127"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="126"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="125"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="44"/>
-      <c r="C12" s="128" t="str">
-        <f>Dashboard!C34</f>
+      <c r="C12" s="126" t="str">
+        <f>Dashboard!C29</f>
         <v>initial_investment</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126">
+      <c r="D12" s="123"/>
+      <c r="E12" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124">
         <v>42948</v>
       </c>
-      <c r="J12" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="127" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="125" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="44"/>
-      <c r="C13" s="124" t="str">
+      <c r="C13" s="122" t="str">
         <f>Dashboard!C15</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="127"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="125"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="44"/>
-      <c r="C14" s="128" t="str">
-        <f>Dashboard!C36</f>
+      <c r="C14" s="126" t="str">
+        <f>Dashboard!C31</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="127"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="125"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="44"/>
-      <c r="C15" s="128" t="str">
+      <c r="C15" s="126" t="str">
         <f>Dashboard!C26</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="127"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="125"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="44"/>
-      <c r="C16" s="128" t="str">
+      <c r="C16" s="126" t="str">
+        <f>Dashboard!C33</f>
+        <v>fixed_operation_and_maintenance_costs_per_year</v>
+      </c>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="125"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="44"/>
+      <c r="C17" s="128" t="str">
+        <f>Dashboard!C43</f>
+        <v>technical_lifetime</v>
+      </c>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="125"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="44"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="125"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="44"/>
+      <c r="C19" s="122" t="str">
         <f>Dashboard!C38</f>
-        <v>fixed_operation_and_maintenance_costs_per_year</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="127"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="130" t="str">
-        <f>Dashboard!C48</f>
-        <v>technical_lifetime</v>
-      </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="127"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="127"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="124" t="str">
-        <f>Dashboard!C43</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="127"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D19" s="123"/>
+      <c r="E19" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="125"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="44"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="127"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="125"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="44"/>
-      <c r="C21" s="124" t="str">
+      <c r="C21" s="122" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="126">
+      <c r="D21" s="123"/>
+      <c r="E21" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="124">
         <v>42948</v>
       </c>
-      <c r="J21" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" s="127"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J21" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="125"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="44"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="127"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="125"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="44"/>
-      <c r="C23" s="125" t="str">
+      <c r="C23" s="123" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="127"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="123"/>
+      <c r="E23" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="125"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="44"/>
-      <c r="C24" s="125" t="str">
+      <c r="C24" s="123" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="127"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="125"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" customHeight="1">
       <c r="B25" s="44"/>
-      <c r="C25" s="125" t="str">
+      <c r="C25" s="123" t="str">
         <f>Dashboard!C12</f>
         <v>output.cooling</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="127"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="125"/>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="44"/>
-      <c r="C26" s="125" t="str">
+      <c r="C26" s="123" t="str">
         <f>Dashboard!C13</f>
         <v>output.useable_heat</v>
       </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="127"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="125"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="44"/>
-      <c r="C27" s="124" t="str">
+      <c r="C27" s="122" t="str">
         <f>Dashboard!C18</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="127"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="125"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" customHeight="1">
       <c r="B28" s="44"/>
-      <c r="C28" s="125" t="str">
+      <c r="C28" s="123" t="str">
         <f>Dashboard!C20</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="127"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="125"/>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="44"/>
-      <c r="C29" s="125" t="str">
+      <c r="C29" s="123" t="str">
         <f>Dashboard!C21</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="127"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="125"/>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="44"/>
-      <c r="C30" s="125" t="str">
+      <c r="C30" s="123" t="str">
         <f>Dashboard!C22</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="127"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="125"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="44"/>
-      <c r="C31" s="125" t="str">
+      <c r="C31" s="123" t="str">
         <f>Dashboard!C23</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="127"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="125"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="44"/>
-      <c r="C32" s="125" t="str">
+      <c r="C32" s="123" t="str">
         <f>Dashboard!C24</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="127"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="125"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="44"/>
-      <c r="C33" s="125" t="str">
+      <c r="C33" s="123" t="str">
         <f>Dashboard!C25</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="127"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="125"/>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="44"/>
-      <c r="C34" s="125" t="str">
-        <f>Dashboard!C27</f>
-        <v>simult_sd</v>
-      </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="127"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="123" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="125"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="44"/>
-      <c r="C35" s="125" t="str">
-        <f>Dashboard!C28</f>
-        <v>simult_se</v>
-      </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="127"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="123" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="125"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="44"/>
-      <c r="C36" s="125" t="str">
-        <f>Dashboard!C29</f>
-        <v>simult_wd</v>
-      </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="127"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="123" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="125"/>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="44"/>
-      <c r="C37" s="125" t="str">
+      <c r="C37" s="123" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="125"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="44"/>
+      <c r="C38" s="123" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="125"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="44"/>
+      <c r="C39" s="123" t="str">
         <f>Dashboard!C30</f>
-        <v>simult_we</v>
-      </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="127"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="44"/>
-      <c r="C38" s="125" t="str">
-        <f>Dashboard!C31</f>
-        <v>peak_load_units_present</v>
-      </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="127"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="44"/>
-      <c r="C39" s="125" t="str">
+        <v>ccs_investment</v>
+      </c>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="125"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="44"/>
+      <c r="C40" s="123" t="str">
+        <f>Dashboard!C32</f>
+        <v>decommissioning_costs</v>
+      </c>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="125"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="44"/>
+      <c r="C41" s="123" t="str">
+        <f>Dashboard!C34</f>
+        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
+      </c>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="125"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="44"/>
+      <c r="C42" s="123" t="str">
         <f>Dashboard!C35</f>
-        <v>ccs_investment</v>
-      </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="127"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="44"/>
-      <c r="C40" s="125" t="str">
+        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
+      </c>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="125"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="44"/>
+      <c r="C43" s="123" t="str">
+        <f>Dashboard!C36</f>
+        <v>wacc</v>
+      </c>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="125"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="44"/>
+      <c r="C44" s="123" t="str">
         <f>Dashboard!C37</f>
-        <v>decommissioning_costs</v>
-      </c>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="127"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="44"/>
-      <c r="C41" s="125" t="str">
-        <f>Dashboard!C39</f>
-        <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
-      </c>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="127"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="44"/>
-      <c r="C42" s="125" t="str">
-        <f>Dashboard!C40</f>
-        <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
-      </c>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="127"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="44"/>
-      <c r="C43" s="125" t="str">
+        <v>takes_part_in_ets</v>
+      </c>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="125"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="44"/>
+      <c r="C45" s="123" t="str">
         <f>Dashboard!C41</f>
-        <v>wacc</v>
-      </c>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="127"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="44"/>
-      <c r="C44" s="125" t="str">
+        <v>land_use_per_unit</v>
+      </c>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="125"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="44"/>
+      <c r="C46" s="123" t="str">
         <f>Dashboard!C42</f>
-        <v>takes_part_in_ets</v>
-      </c>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="127"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="44"/>
-      <c r="C45" s="125" t="str">
+        <v>construction_time</v>
+      </c>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="125"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="44"/>
+      <c r="C47" s="123" t="str">
+        <f>Dashboard!C44</f>
+        <v>free_co2_factor</v>
+      </c>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="125"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="44"/>
+      <c r="C48" s="123" t="str">
+        <f>Dashboard!C45</f>
+        <v>hours_prep_nl</v>
+      </c>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="125"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="44"/>
+      <c r="C49" s="123" t="str">
         <f>Dashboard!C46</f>
-        <v>land_use_per_unit</v>
-      </c>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="127"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="44"/>
-      <c r="C46" s="125" t="str">
+        <v>hours_prod_nl</v>
+      </c>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="125"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="44"/>
+      <c r="C50" s="123" t="str">
         <f>Dashboard!C47</f>
-        <v>construction_time</v>
-      </c>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="127"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="44"/>
-      <c r="C47" s="125" t="str">
+        <v>hours_place_nl</v>
+      </c>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="125"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="44"/>
+      <c r="C51" s="123" t="str">
+        <f>Dashboard!C48</f>
+        <v>hours_maint_nl</v>
+      </c>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="125"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="44"/>
+      <c r="C52" s="123" t="str">
         <f>Dashboard!C49</f>
-        <v>free_co2_factor</v>
-      </c>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="127"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="44"/>
-      <c r="C48" s="125" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prep_nl</v>
-      </c>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="127"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="44"/>
-      <c r="C49" s="125" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="127"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="44"/>
-      <c r="C50" s="125" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="127"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="44"/>
-      <c r="C51" s="125" t="str">
-        <f>Dashboard!C53</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="127"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="44"/>
-      <c r="C52" s="125" t="str">
-        <f>Dashboard!C54</f>
         <v>hours_remov_nl</v>
       </c>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="127"/>
-    </row>
-    <row r="53" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="110"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="125"/>
+    </row>
+    <row r="53" spans="2:11" ht="17" thickBot="1">
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5576,30 +5331,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView topLeftCell="D22" zoomScale="94" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" style="85" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="85" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="85"/>
-    <col min="10" max="10" width="136.28515625" style="85" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="85"/>
+    <col min="1" max="1" width="3.5" style="83" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="83" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="83" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="83"/>
+    <col min="10" max="10" width="136.33203125" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="86"/>
+    <row r="2" spans="2:10" ht="17" thickBot="1"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="84"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -5607,885 +5362,885 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="87"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="77"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="75"/>
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
+      <c r="J4" s="86"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="87"/>
       <c r="C7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="90">
+      <c r="E7" s="88">
         <v>65</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="90">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="88">
         <v>3.25</v>
       </c>
-      <c r="F14" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="90">
+      <c r="F14" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="88">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F15" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="89"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="89"/>
+      <c r="F15" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="87"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="87"/>
       <c r="C22" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D22" s="46"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="89"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="87"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="132">
+      <c r="D23" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="130">
         <v>10</v>
       </c>
-      <c r="F23" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="89"/>
+      <c r="F23" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="87"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="132">
+      <c r="D24" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="130">
         <v>10</v>
       </c>
-      <c r="F24" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="89"/>
+      <c r="F24" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="87"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="132">
+      <c r="D25" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="130">
         <v>4.18</v>
       </c>
-      <c r="F25" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
+      <c r="F25" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="89"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="87"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="132">
+      <c r="D26" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="130">
         <v>10</v>
       </c>
-      <c r="F26" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="89"/>
+      <c r="F26" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="89"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="87"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="133">
+      <c r="D27" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="131">
         <f>E23*60*E24/E25/E26</f>
         <v>143.54066985645935</v>
       </c>
-      <c r="F27" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="89"/>
+      <c r="F27" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="89"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="87"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="133">
+      <c r="D28" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="131">
         <v>3600000</v>
       </c>
-      <c r="F28" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="89"/>
+      <c r="F28" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="89"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="87"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="134" t="str">
+      <c r="D29" s="132" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="E29" s="132">
+      <c r="E29" s="130">
         <f>MROUND(E27*E26*E25/E28,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F29" s="132" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="89"/>
+      <c r="F29" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="88"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="87"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="89"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="89"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="87"/>
       <c r="C31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="132">
+        <v>123</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="130">
         <v>20</v>
       </c>
-      <c r="F31" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="89"/>
+      <c r="F31" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="87"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="132">
+      <c r="D32" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="130">
         <v>10</v>
       </c>
-      <c r="F32" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
+      <c r="F32" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="89"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="87"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="132">
+      <c r="D33" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="130">
         <v>4.18</v>
       </c>
-      <c r="F33" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="89"/>
+      <c r="F33" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="89"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="87"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="132">
+      <c r="D34" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="130">
         <v>10</v>
       </c>
-      <c r="F34" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="89"/>
+      <c r="F34" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="89"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="87"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="133">
+      <c r="D35" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="131">
         <f>E31*60*E32/E33/E34</f>
         <v>287.08133971291869</v>
       </c>
-      <c r="F35" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="89"/>
+      <c r="F35" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="89"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="87"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="133">
+      <c r="D36" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="131">
         <v>3600000</v>
       </c>
-      <c r="F36" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="89"/>
+      <c r="F36" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="89"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="87"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="134" t="str">
+      <c r="D37" s="132" t="str">
         <f>Dashboard!C$17</f>
         <v>storage.volume</v>
       </c>
-      <c r="E37" s="132">
+      <c r="E37" s="130">
         <f>MROUND(E35*E34*E33/E36,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F37" s="132" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="89"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="89"/>
+      <c r="F37" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="89"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="89"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="89"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="89"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="89"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="89"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="87"/>
       <c r="C47" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="91"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="89"/>
+        <v>101</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="89"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="87"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="91"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="91"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="135" t="str">
-        <f>Dashboard!C48</f>
+      <c r="D48" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="89"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="89"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="133" t="str">
+        <f>Dashboard!C43</f>
         <v>technical_lifetime</v>
       </c>
-      <c r="E50" s="94">
+      <c r="E50" s="92">
         <v>15</v>
       </c>
-      <c r="F50" s="84" t="s">
+      <c r="F50" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="84"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="91"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="90">
+      <c r="G50" s="82"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="89"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="88">
         <v>9500</v>
       </c>
-      <c r="F51" s="90" t="s">
+      <c r="F51" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="89"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="155">
+      <c r="G51" s="82"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="89"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="87"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="153">
         <v>253.6</v>
       </c>
-      <c r="F52" s="90" t="s">
+      <c r="F52" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="84"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="91"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="135" t="str">
-        <f>Dashboard!C34</f>
+      <c r="G52" s="82"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="89"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="133" t="str">
+        <f>Dashboard!C29</f>
         <v>initial_investment</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="153">
         <f>E51-E52</f>
         <v>9246.4</v>
       </c>
-      <c r="F53" s="90" t="s">
+      <c r="F53" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="91"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="135" t="str">
-        <f>Dashboard!C36</f>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="89"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="133" t="str">
+        <f>Dashboard!C31</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="E54" s="90">
+      <c r="E54" s="88">
         <v>1500</v>
       </c>
-      <c r="F54" s="90" t="s">
+      <c r="F54" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="91"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="135" t="str">
-        <f>Dashboard!C38</f>
+      <c r="G54" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="89"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="133" t="str">
+        <f>Dashboard!C33</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="E55" s="90">
+      <c r="E55" s="88">
         <v>100</v>
       </c>
-      <c r="F55" s="90" t="s">
+      <c r="F55" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="91"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="135" t="str">
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="89"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="133" t="str">
         <f>Dashboard!C26</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="E56" s="90">
+      <c r="E56" s="88">
         <f>H56/1000</f>
         <v>0.01</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90">
+      <c r="G56" s="88"/>
+      <c r="H56" s="88">
         <v>10</v>
       </c>
-      <c r="I56" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="J56" s="91"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="91"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="90">
+      <c r="I56" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" s="89"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="89"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="88">
         <v>7</v>
       </c>
-      <c r="F58" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="91"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="90">
+      <c r="F58" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="89"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="88">
         <f>H56/(E58*E15+E14)/1000</f>
         <v>2.5889967637540458E-3</v>
       </c>
-      <c r="F59" s="90" t="s">
+      <c r="F59" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="91"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="134" t="str">
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="89"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="132" t="str">
         <f>Dashboard!C$17</f>
         <v>storage.volume</v>
       </c>
-      <c r="E60" s="90">
-        <v>0</v>
-      </c>
-      <c r="F60" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="91"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="91"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="89"/>
+      <c r="E60" s="88">
+        <v>0</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="89"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="89"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="87"/>
       <c r="C62" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="134" t="str">
-        <f>Dashboard!C43</f>
+        <v>104</v>
+      </c>
+      <c r="D62" s="132" t="str">
+        <f>Dashboard!C38</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E62" s="106">
-        <v>0</v>
-      </c>
-      <c r="F62" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="91"/>
-    </row>
-    <row r="63" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="136"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="138"/>
+      <c r="E62" s="104">
+        <v>0</v>
+      </c>
+      <c r="F62" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="89"/>
+    </row>
+    <row r="63" spans="2:10" ht="17" thickBot="1">
+      <c r="B63" s="134"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
+      <c r="J63" s="136"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762C284E-EBE5-7348-B349-4562489C2561}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB18C55E-2303-EA49-8619-F965F1E9F3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
   <si>
     <t>Source</t>
   </si>
@@ -287,21 +293,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
   </si>
   <si>
     <t>input.ambient_heat</t>
@@ -486,6 +477,66 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>Vesta Functioneel Ontwerp 4.0</t>
+  </si>
+  <si>
+    <t>investment_costs</t>
+  </si>
+  <si>
+    <t>vaste investeringskosten min</t>
+  </si>
+  <si>
+    <t>variable investeringskosten min</t>
+  </si>
+  <si>
+    <t>vaste investeringskosten max</t>
+  </si>
+  <si>
+    <t>variable investeringskosten max</t>
+  </si>
+  <si>
+    <t>Ki_w_LWP_vast_max</t>
+  </si>
+  <si>
+    <t>Ki_w_LWP_vast_min</t>
+  </si>
+  <si>
+    <t>euro/aansluiting</t>
+  </si>
+  <si>
+    <t>euro/kW</t>
+  </si>
+  <si>
+    <t>LETOP: het lijkt erop alsof de variable kosten zijn omgewisseld tussen min/max</t>
+  </si>
+  <si>
+    <t>euro/unit</t>
+  </si>
+  <si>
+    <t>totale investeringskosten min</t>
+  </si>
+  <si>
+    <t>totale investeringskosten max</t>
+  </si>
+  <si>
+    <t>gemiddelde nemen!</t>
+  </si>
+  <si>
+    <t>dit is inclusief de cost_of_installing, dus die gaat naar nul</t>
+  </si>
+  <si>
+    <t>Vesta</t>
+  </si>
+  <si>
+    <t>Ki_w_LWP_var_max</t>
+  </si>
+  <si>
+    <t>Ki_w_LWP_var_min</t>
   </si>
 </sst>
 </file>
@@ -499,12 +550,19 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -581,6 +639,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +647,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,6 +655,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,6 +663,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,17 +671,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,6 +698,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,486 +990,488 @@
   </borders>
   <cellStyleXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1678,14 +1746,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>898766</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5960205</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5960204</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
@@ -1722,14 +1790,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>886125</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10686733</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4951</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>105449</xdr:rowOff>
     </xdr:to>
@@ -1766,14 +1834,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>937845</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>97691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6459758</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6459757</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>172397</xdr:rowOff>
     </xdr:to>
@@ -1800,6 +1868,138 @@
         <a:xfrm>
           <a:off x="13657383" y="6369537"/>
           <a:ext cx="6479298" cy="2614706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27022</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7356273</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>94356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE05B5E1-5F76-4242-85BC-A965D9C20BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8984575" y="13145851"/>
+          <a:ext cx="10058400" cy="4188079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1346740</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>121596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7324927</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8E48E1-634F-0A4F-89BF-93EB061A063C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8669506" y="17361170"/>
+          <a:ext cx="10058400" cy="4035669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1319720</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7297907</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>188437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024FAF6D-1F52-DD44-ABE3-1BD825DAFA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8642486" y="21441383"/>
+          <a:ext cx="10058400" cy="647799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,7 +2484,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2430,10 +2630,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD31"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2458,28 +2658,28 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+      <c r="B2" s="156" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:10" ht="35" customHeight="1">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
@@ -2545,12 +2745,12 @@
     <row r="10" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="16"/>
       <c r="C10" s="93" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <f>'Research data'!E6</f>
         <v>0.77777777777777801</v>
       </c>
@@ -2565,12 +2765,12 @@
     <row r="11" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="16"/>
       <c r="C11" s="93" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="97">
         <f>'Research data'!E7</f>
         <v>0.22222222222222199</v>
       </c>
@@ -2585,7 +2785,7 @@
     <row r="12" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="16"/>
       <c r="C12" s="88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>4</v>
@@ -2605,7 +2805,7 @@
     <row r="13" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="16"/>
       <c r="C13" s="93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>4</v>
@@ -2625,7 +2825,7 @@
     <row r="14" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="16"/>
       <c r="C14" s="91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
@@ -2645,12 +2845,12 @@
     <row r="15" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B15" s="16"/>
       <c r="C15" s="91" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="98">
         <f>'Research data'!E11</f>
         <v>2.5889967637540458E-3</v>
       </c>
@@ -2665,12 +2865,12 @@
     <row r="16" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B16" s="16"/>
       <c r="C16" s="91" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="97">
         <f>'Research data'!E12</f>
         <v>8.7499999999999994E-2</v>
       </c>
@@ -2685,12 +2885,12 @@
     <row r="17" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B17" s="16"/>
       <c r="C17" s="91" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="98">
+        <v>133</v>
+      </c>
+      <c r="E17" s="97">
         <f>'Research data'!E13</f>
         <v>0</v>
       </c>
@@ -2705,10 +2905,10 @@
     <row r="18" spans="2:11" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B18" s="16"/>
       <c r="C18" s="91" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E18" s="38">
         <f>'Research data'!E14</f>
@@ -2767,7 +2967,7 @@
     <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="31"/>
       <c r="C21" s="93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>4</v>
@@ -2923,9 +3123,9 @@
       <c r="D29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="99">
         <f>'Research data'!E25</f>
-        <v>9246.4</v>
+        <v>9098</v>
       </c>
       <c r="G29" s="27" t="s">
         <v>7</v>
@@ -2933,7 +3133,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="25" t="str">
         <f>LOOKUP(E29,'Research data'!F25:K25,'Research data'!F$3:$K$3)</f>
-        <v>DHPA</v>
+        <v>Vesta</v>
       </c>
       <c r="J29" s="80"/>
     </row>
@@ -2945,7 +3145,7 @@
       <c r="D30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="99">
         <f>'Research data'!E26</f>
         <v>0</v>
       </c>
@@ -2967,9 +3167,9 @@
       <c r="D31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="99">
         <f>'Research data'!E27</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>22</v>
@@ -2977,7 +3177,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="25" t="str">
         <f>LOOKUP(E31,'Research data'!F27:K27,'Research data'!F$3:$K$3)</f>
-        <v>DHPA</v>
+        <v>Vesta</v>
       </c>
       <c r="J31" s="80"/>
     </row>
@@ -2989,7 +3189,7 @@
       <c r="D32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="99">
         <f>'Research data'!E28</f>
         <v>0</v>
       </c>
@@ -3011,7 +3211,7 @@
       <c r="D33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="99">
         <f>'Research data'!E29</f>
         <v>100</v>
       </c>
@@ -3033,7 +3233,7 @@
       <c r="D34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="99">
         <f>'Research data'!E30</f>
         <v>0</v>
       </c>
@@ -3055,7 +3255,7 @@
       <c r="D35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="99">
         <f>'Research data'!E31</f>
         <v>0</v>
       </c>
@@ -3077,17 +3277,15 @@
       <c r="D36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="100">
-        <f>'Research data'!E32</f>
-        <v>0.04</v>
+      <c r="E36" s="99">
+        <v>0.02</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="27"/>
-      <c r="I36" s="25" t="str">
-        <f>LOOKUP(E36,'Research data'!F32:K32,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
+      <c r="I36" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="J36" s="80"/>
     </row>
@@ -3099,14 +3297,14 @@
       <c r="D37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="100">
-        <f>'Research data'!E33</f>
+      <c r="E37" s="99">
+        <f>'Research data'!E32</f>
         <v>0</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="25" t="str">
-        <f>LOOKUP(E37,'Research data'!F33:K33,'Research data'!F$3:$K$3)</f>
+        <f>LOOKUP(E37,'Research data'!F32:K32,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J37" s="80"/>
@@ -3114,20 +3312,20 @@
     <row r="38" spans="2:10" s="35" customFormat="1" ht="20" thickBot="1">
       <c r="B38" s="16"/>
       <c r="C38" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="100">
-        <f>'Research data'!E34</f>
+        <v>128</v>
+      </c>
+      <c r="E38" s="99">
+        <f>'Research data'!E33</f>
         <v>0</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="25" t="str">
-        <f>LOOKUP(E38,'Research data'!F34:K34,'Research data'!F$3:$K$3)</f>
-        <v>??</v>
+      <c r="I38" s="25" t="e">
+        <f>LOOKUP(E38,'Research data'!F33:K33,'Research data'!F$3:$K$3)</f>
+        <v>#N/A</v>
       </c>
       <c r="J38" s="36"/>
     </row>
@@ -3161,8 +3359,8 @@
       <c r="D41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="100">
-        <f>'Research data'!E37</f>
+      <c r="E41" s="99">
+        <f>'Research data'!E36</f>
         <v>0</v>
       </c>
       <c r="G41" s="27" t="s">
@@ -3170,7 +3368,7 @@
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="25" t="str">
-        <f>LOOKUP(E41,'Research data'!F37:K37,'Research data'!F$3:$K$3)</f>
+        <f>LOOKUP(E41,'Research data'!F36:K36,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J41" s="80"/>
@@ -3183,8 +3381,8 @@
       <c r="D42" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="100">
-        <f>'Research data'!E38</f>
+      <c r="E42" s="99">
+        <f>'Research data'!E37</f>
         <v>0</v>
       </c>
       <c r="G42" s="27" t="s">
@@ -3192,7 +3390,7 @@
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="25" t="str">
-        <f>LOOKUP(E42,'Research data'!F38:K38,'Research data'!F$3:$K$3)</f>
+        <f>LOOKUP(E42,'Research data'!F37:K37,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J42" s="80"/>
@@ -3205,8 +3403,8 @@
       <c r="D43" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="100">
-        <f>'Research data'!E39</f>
+      <c r="E43" s="99">
+        <f>'Research data'!E38</f>
         <v>15</v>
       </c>
       <c r="G43" s="27" t="s">
@@ -3214,7 +3412,7 @@
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="25" t="str">
-        <f>LOOKUP(E43,'Research data'!F39:K39,'Research data'!F$3:$K$3)</f>
+        <f>LOOKUP(E43,'Research data'!F38:K38,'Research data'!F$3:$K$3)</f>
         <v>DHPA</v>
       </c>
       <c r="J43" s="80"/>
@@ -3227,128 +3425,28 @@
       <c r="D44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="100">
-        <f>'Research data'!E40</f>
+      <c r="E44" s="99">
+        <f>'Research data'!E39</f>
         <v>0</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="25" t="str">
-        <f>LOOKUP(E44,'Research data'!F40:K40,'Research data'!F$3:$K$3)</f>
+        <f>LOOKUP(E44,'Research data'!F39:K39,'Research data'!F$3:$K$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J44" s="80"/>
     </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
-      <c r="B45" s="31"/>
-      <c r="C45" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="100">
-        <f>'Research data'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="25" t="str">
-        <f>LOOKUP(E45,'Research data'!F41:K41,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J45" s="80"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1">
-      <c r="B46" s="31"/>
-      <c r="C46" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="100">
-        <f>'Research data'!E42</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="25" t="str">
-        <f>LOOKUP(E46,'Research data'!F42:K42,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J46" s="80"/>
-    </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1">
-      <c r="B47" s="31"/>
-      <c r="C47" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="100">
-        <f>'Research data'!E43</f>
-        <v>7</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="25" t="str">
-        <f>LOOKUP(E47,'Research data'!F43:K43,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J47" s="80"/>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1">
-      <c r="B48" s="31"/>
-      <c r="C48" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="100">
-        <f>'Research data'!E44</f>
-        <v>1.5</v>
-      </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="25" t="str">
-        <f>LOOKUP(E48,'Research data'!F44:K44,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J48" s="80"/>
-    </row>
-    <row r="49" spans="2:10" ht="17" thickBot="1">
-      <c r="B49" s="31"/>
-      <c r="C49" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="100">
-        <f>'Research data'!E45</f>
-        <v>7</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="25" t="str">
-        <f>LOOKUP(E49,'Research data'!F45:K45,'Research data'!F$3:$K$3)</f>
-        <v>Quintel WD</v>
-      </c>
-      <c r="J49" s="80"/>
-    </row>
-    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
+    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3364,10 +3462,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3397,9 +3495,9 @@
       <c r="J2" s="56"/>
       <c r="K2" s="56"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="2:13" s="17" customFormat="1" ht="32">
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="2:13" s="17" customFormat="1" ht="34">
       <c r="B3" s="75"/>
       <c r="C3" s="81" t="s">
         <v>75</v>
@@ -3407,29 +3505,29 @@
       <c r="D3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="96" t="s">
-        <v>104</v>
+      <c r="H3" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>157</v>
       </c>
       <c r="K3" s="81" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L3" s="52"/>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="109" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3437,15 +3535,15 @@
       <c r="B4" s="16"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="111"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="110"/>
     </row>
     <row r="5" spans="2:13" ht="17" thickBot="1">
       <c r="B5" s="58"/>
@@ -3460,447 +3558,447 @@
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="114"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1">
       <c r="B6" s="58"/>
-      <c r="C6" s="137" t="str">
+      <c r="C6" s="136" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D6" s="137" t="str">
+      <c r="D6" s="136" t="str">
         <f>Dashboard!D10</f>
         <v>-</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="137">
         <f>K6</f>
         <v>0.77777777777777801</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="138">
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="137">
         <v>0.77777777777777801</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="112"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="2:13" ht="17" thickBot="1">
       <c r="B7" s="58"/>
-      <c r="C7" s="137" t="str">
+      <c r="C7" s="136" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D7" s="137" t="str">
+      <c r="D7" s="136" t="str">
         <f>Dashboard!D11</f>
         <v>-</v>
       </c>
-      <c r="E7" s="138">
+      <c r="E7" s="137">
         <f>K7</f>
         <v>0.22222222222222199</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138">
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137">
         <v>0.22222222222222199</v>
       </c>
-      <c r="L7" s="139"/>
-      <c r="M7" s="112"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="2:13" ht="17" thickBot="1">
       <c r="B8" s="58"/>
-      <c r="C8" s="137" t="str">
+      <c r="C8" s="136" t="str">
         <f>Dashboard!C12</f>
         <v>output.cooling</v>
       </c>
-      <c r="D8" s="137" t="str">
+      <c r="D8" s="136" t="str">
         <f>Dashboard!D12</f>
         <v>-</v>
       </c>
-      <c r="E8" s="138">
+      <c r="E8" s="137">
         <f>K8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="138">
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137">
         <v>0</v>
       </c>
-      <c r="L8" s="139"/>
-      <c r="M8" s="112"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="111"/>
     </row>
     <row r="9" spans="2:13" ht="17" thickBot="1">
       <c r="B9" s="58"/>
-      <c r="C9" s="137" t="str">
+      <c r="C9" s="136" t="str">
         <f>Dashboard!C13</f>
         <v>output.useable_heat</v>
       </c>
-      <c r="D9" s="137" t="str">
+      <c r="D9" s="136" t="str">
         <f>Dashboard!D13</f>
         <v>-</v>
       </c>
-      <c r="E9" s="138">
+      <c r="E9" s="137">
         <f>K9</f>
         <v>1</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138">
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137">
         <v>1</v>
       </c>
-      <c r="L9" s="139"/>
-      <c r="M9" s="112"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="2:13" ht="17" thickBot="1">
       <c r="B10" s="58"/>
-      <c r="C10" s="137" t="str">
+      <c r="C10" s="136" t="str">
         <f>Dashboard!C14</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D10" s="137" t="str">
+      <c r="D10" s="136" t="str">
         <f>Dashboard!D14</f>
         <v>-</v>
       </c>
-      <c r="E10" s="138">
+      <c r="E10" s="137">
         <f>F10</f>
         <v>3.25</v>
       </c>
-      <c r="F10" s="140">
+      <c r="F10" s="139">
         <f>Notes!E14</f>
         <v>3.25</v>
       </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="112"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="2:13" ht="17" thickBot="1">
       <c r="B11" s="58"/>
-      <c r="C11" s="137" t="str">
+      <c r="C11" s="136" t="str">
         <f>Dashboard!C15</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="D11" s="137" t="str">
+      <c r="D11" s="136" t="str">
         <f>Dashboard!D15</f>
         <v>-</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="141">
         <f>G11</f>
         <v>2.5889967637540458E-3</v>
       </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="143">
+      <c r="F11" s="140"/>
+      <c r="G11" s="142">
         <f>Notes!E59</f>
         <v>2.5889967637540458E-3</v>
       </c>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="112"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="2:13" ht="17" thickBot="1">
       <c r="B12" s="58"/>
-      <c r="C12" s="137" t="str">
+      <c r="C12" s="136" t="str">
         <f>Dashboard!C16</f>
         <v>fever.cop_per_degree</v>
       </c>
-      <c r="D12" s="137" t="str">
+      <c r="D12" s="136" t="str">
         <f>Dashboard!D16</f>
         <v>-</v>
       </c>
-      <c r="E12" s="138">
+      <c r="E12" s="137">
         <f>F12</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="F12" s="140">
+      <c r="F12" s="139">
         <f>Notes!E15</f>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="112"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="2:13" ht="17" thickBot="1">
       <c r="B13" s="58"/>
-      <c r="C13" s="137" t="str">
+      <c r="C13" s="136" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="D13" s="137" t="str">
+      <c r="D13" s="136" t="str">
         <f>Dashboard!D17</f>
         <v>MWh</v>
       </c>
-      <c r="E13" s="138">
+      <c r="E13" s="137">
         <f>G13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="152">
+      <c r="F13" s="140"/>
+      <c r="G13" s="151">
         <f>Notes!E60</f>
         <v>0</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="151">
         <f>Notes!E29</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="I13" s="152">
+      <c r="I13" s="151">
         <f>Notes!E37</f>
         <v>3.3E-3</v>
       </c>
-      <c r="J13" s="137"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="112"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="111"/>
     </row>
     <row r="14" spans="2:13" ht="17" thickBot="1">
       <c r="B14" s="58"/>
-      <c r="C14" s="137" t="str">
+      <c r="C14" s="136" t="str">
         <f>Dashboard!C18</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D14" s="137" t="str">
+      <c r="D14" s="136" t="str">
         <f>Dashboard!D18</f>
         <v>euro/MWh</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="137">
         <f>K14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="138">
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="137">
         <v>0</v>
       </c>
-      <c r="L14" s="139"/>
-      <c r="M14" s="151" t="s">
-        <v>137</v>
+      <c r="L14" s="138"/>
+      <c r="M14" s="150" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="17" thickBot="1">
       <c r="B15" s="58"/>
-      <c r="C15" s="137" t="str">
+      <c r="C15" s="136" t="str">
         <f>Dashboard!C19</f>
         <v>availability</v>
       </c>
-      <c r="D15" s="137" t="str">
+      <c r="D15" s="136" t="str">
         <f>Dashboard!D19</f>
         <v>-</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="137">
         <f t="shared" ref="E15:E21" si="0">K15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138">
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="137">
         <v>0</v>
       </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="112"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="111"/>
     </row>
     <row r="16" spans="2:13" ht="17" thickBot="1">
       <c r="B16" s="58"/>
-      <c r="C16" s="137" t="str">
+      <c r="C16" s="136" t="str">
         <f>Dashboard!C20</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D16" s="137" t="str">
+      <c r="D16" s="136" t="str">
         <f>Dashboard!D20</f>
         <v>-</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138">
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="137">
         <v>0</v>
       </c>
-      <c r="L16" s="139"/>
-      <c r="M16" s="112"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="111"/>
     </row>
     <row r="17" spans="2:13" ht="17" thickBot="1">
       <c r="B17" s="58"/>
-      <c r="C17" s="137" t="str">
+      <c r="C17" s="136" t="str">
         <f>Dashboard!C21</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D17" s="137" t="str">
+      <c r="D17" s="136" t="str">
         <f>Dashboard!D21</f>
         <v>-</v>
       </c>
-      <c r="E17" s="138">
+      <c r="E17" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138">
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="137">
         <v>0</v>
       </c>
-      <c r="L17" s="139"/>
-      <c r="M17" s="112"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="111"/>
     </row>
     <row r="18" spans="2:13" ht="17" thickBot="1">
       <c r="B18" s="58"/>
-      <c r="C18" s="137" t="str">
+      <c r="C18" s="136" t="str">
         <f>Dashboard!C22</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D18" s="137" t="str">
+      <c r="D18" s="136" t="str">
         <f>Dashboard!D22</f>
         <v>-</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="137">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138">
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="137">
         <v>1</v>
       </c>
-      <c r="L18" s="139"/>
-      <c r="M18" s="112"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="111"/>
     </row>
     <row r="19" spans="2:13" ht="17" thickBot="1">
       <c r="B19" s="58"/>
-      <c r="C19" s="137" t="str">
+      <c r="C19" s="136" t="str">
         <f>Dashboard!C23</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D19" s="137" t="str">
+      <c r="D19" s="136" t="str">
         <f>Dashboard!D23</f>
         <v>-</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138">
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="137">
         <v>0</v>
       </c>
-      <c r="L19" s="139"/>
-      <c r="M19" s="112"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="111"/>
     </row>
     <row r="20" spans="2:13" ht="17" thickBot="1">
       <c r="B20" s="58"/>
-      <c r="C20" s="137" t="str">
+      <c r="C20" s="136" t="str">
         <f>Dashboard!C24</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D20" s="137" t="str">
+      <c r="D20" s="136" t="str">
         <f>Dashboard!D24</f>
         <v>-</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138">
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="137">
         <v>0</v>
       </c>
-      <c r="L20" s="139"/>
-      <c r="M20" s="112"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="111"/>
     </row>
     <row r="21" spans="2:13" ht="17" thickBot="1">
       <c r="B21" s="58"/>
-      <c r="C21" s="137" t="str">
+      <c r="C21" s="136" t="str">
         <f>Dashboard!C25</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D21" s="137" t="str">
+      <c r="D21" s="136" t="str">
         <f>Dashboard!D25</f>
         <v>MW</v>
       </c>
-      <c r="E21" s="138">
+      <c r="E21" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138">
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="137">
         <v>0</v>
       </c>
-      <c r="L21" s="139"/>
-      <c r="M21" s="112"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="111"/>
     </row>
     <row r="22" spans="2:13" ht="17" thickBot="1">
       <c r="B22" s="58"/>
-      <c r="C22" s="137" t="str">
+      <c r="C22" s="136" t="str">
         <f>Dashboard!C26</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D22" s="137" t="str">
+      <c r="D22" s="136" t="str">
         <f>Dashboard!D26</f>
         <v>MW</v>
       </c>
-      <c r="E22" s="140">
+      <c r="E22" s="139">
         <f>G22</f>
         <v>0.01</v>
       </c>
-      <c r="F22" s="141"/>
-      <c r="G22" s="144">
+      <c r="F22" s="140"/>
+      <c r="G22" s="143">
         <f>Notes!E56</f>
         <v>0.01</v>
       </c>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="112"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="111"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="58"/>
@@ -3912,9 +4010,9 @@
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
       <c r="J23" s="59"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="114"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
     </row>
     <row r="24" spans="2:13" ht="17" thickBot="1">
       <c r="B24" s="58"/>
@@ -3932,548 +4030,399 @@
       <c r="H24" s="59"/>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="113"/>
     </row>
     <row r="25" spans="2:13" ht="17" thickBot="1">
       <c r="B25" s="58"/>
-      <c r="C25" s="137" t="str">
+      <c r="C25" s="136" t="str">
         <f>Dashboard!C29</f>
         <v>initial_investment</v>
       </c>
-      <c r="D25" s="137" t="str">
+      <c r="D25" s="136" t="str">
         <f>Dashboard!D29</f>
         <v>euro</v>
       </c>
-      <c r="E25" s="145">
-        <f>G25</f>
-        <v>9246.4</v>
-      </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="147">
+      <c r="E25" s="144">
+        <f>J25</f>
+        <v>9098</v>
+      </c>
+      <c r="F25" s="145"/>
+      <c r="G25" s="146">
         <f>Notes!E53</f>
         <v>9246.4</v>
       </c>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="112"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146">
+        <f>Notes!E75</f>
+        <v>9098</v>
+      </c>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="111"/>
     </row>
     <row r="26" spans="2:13" ht="17" thickBot="1">
       <c r="B26" s="58"/>
-      <c r="C26" s="137" t="str">
+      <c r="C26" s="136" t="str">
         <f>Dashboard!C30</f>
         <v>ccs_investment</v>
       </c>
-      <c r="D26" s="137" t="str">
+      <c r="D26" s="136" t="str">
         <f>Dashboard!D30</f>
         <v>euro</v>
       </c>
-      <c r="E26" s="138">
+      <c r="E26" s="137">
         <f>K26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="138">
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137">
         <v>0</v>
       </c>
-      <c r="L26" s="139"/>
-      <c r="M26" s="112"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="111"/>
     </row>
     <row r="27" spans="2:13" ht="17" thickBot="1">
       <c r="B27" s="58"/>
-      <c r="C27" s="137" t="str">
+      <c r="C27" s="136" t="str">
         <f>Dashboard!C31</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D27" s="137" t="str">
+      <c r="D27" s="136" t="str">
         <f>Dashboard!D31</f>
         <v>euro</v>
       </c>
-      <c r="E27" s="145">
-        <f>G27</f>
-        <v>1500</v>
-      </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="147">
+      <c r="E27" s="144">
+        <f>J27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="147"/>
+      <c r="G27" s="146">
         <f>Notes!E54</f>
         <v>1500</v>
       </c>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="112"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="146">
+        <v>0</v>
+      </c>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="111"/>
     </row>
     <row r="28" spans="2:13" ht="17" thickBot="1">
       <c r="B28" s="58"/>
-      <c r="C28" s="137" t="str">
+      <c r="C28" s="136" t="str">
         <f>Dashboard!C32</f>
         <v>decommissioning_costs</v>
       </c>
-      <c r="D28" s="137" t="str">
+      <c r="D28" s="136" t="str">
         <f>Dashboard!D32</f>
         <v>euro</v>
       </c>
-      <c r="E28" s="138">
+      <c r="E28" s="137">
         <f>K28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138">
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="137">
         <v>0</v>
       </c>
-      <c r="L28" s="139"/>
-      <c r="M28" s="112"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="111"/>
     </row>
     <row r="29" spans="2:13" ht="17" thickBot="1">
       <c r="B29" s="58"/>
-      <c r="C29" s="137" t="str">
+      <c r="C29" s="136" t="str">
         <f>Dashboard!C33</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D29" s="137" t="str">
+      <c r="D29" s="136" t="str">
         <f>Dashboard!D33</f>
         <v>euro/year</v>
       </c>
-      <c r="E29" s="145">
+      <c r="E29" s="144">
         <f>G29</f>
         <v>100</v>
       </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="147">
+      <c r="F29" s="145"/>
+      <c r="G29" s="146">
         <f>Notes!E55</f>
         <v>100</v>
       </c>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="112"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="111"/>
     </row>
     <row r="30" spans="2:13" ht="17" thickBot="1">
       <c r="B30" s="58"/>
-      <c r="C30" s="137" t="str">
+      <c r="C30" s="136" t="str">
         <f>Dashboard!C34</f>
         <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
       </c>
-      <c r="D30" s="137" t="str">
+      <c r="D30" s="136" t="str">
         <f>Dashboard!D34</f>
         <v>euro/FLH</v>
       </c>
-      <c r="E30" s="138">
+      <c r="E30" s="137">
         <f>K30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138">
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="137">
         <v>0</v>
       </c>
-      <c r="L30" s="139"/>
-      <c r="M30" s="112"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="111"/>
     </row>
     <row r="31" spans="2:13" ht="17" thickBot="1">
       <c r="B31" s="58"/>
-      <c r="C31" s="137" t="str">
+      <c r="C31" s="136" t="str">
         <f>Dashboard!C35</f>
         <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
       </c>
-      <c r="D31" s="137" t="str">
+      <c r="D31" s="136" t="str">
         <f>Dashboard!D35</f>
         <v>euro/FLH</v>
       </c>
-      <c r="E31" s="138">
+      <c r="E31" s="137">
         <f>K31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="138">
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="137">
         <v>0</v>
       </c>
-      <c r="L31" s="139"/>
-      <c r="M31" s="112"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="111"/>
     </row>
     <row r="32" spans="2:13" ht="17" thickBot="1">
       <c r="B32" s="58"/>
-      <c r="C32" s="137" t="str">
-        <f>Dashboard!C36</f>
-        <v>wacc</v>
-      </c>
-      <c r="D32" s="137" t="str">
-        <f>Dashboard!D36</f>
-        <v>%</v>
-      </c>
-      <c r="E32" s="138">
+      <c r="C32" s="136" t="str">
+        <f>Dashboard!C37</f>
+        <v>takes_part_in_ets</v>
+      </c>
+      <c r="D32" s="136" t="str">
+        <f>Dashboard!D37</f>
+        <v>yes=1, no=0</v>
+      </c>
+      <c r="E32" s="137">
         <f>K32</f>
-        <v>0.04</v>
-      </c>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138">
-        <v>0.04</v>
-      </c>
-      <c r="L32" s="139"/>
-      <c r="M32" s="112"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="137">
+        <v>0</v>
+      </c>
+      <c r="L32" s="138"/>
+      <c r="M32" s="111"/>
     </row>
     <row r="33" spans="2:13" ht="17" thickBot="1">
       <c r="B33" s="58"/>
-      <c r="C33" s="137" t="str">
-        <f>Dashboard!C37</f>
-        <v>takes_part_in_ets</v>
-      </c>
-      <c r="D33" s="137" t="str">
-        <f>Dashboard!D37</f>
-        <v>yes=1, no=0</v>
-      </c>
-      <c r="E33" s="138">
-        <f>K33</f>
+      <c r="C33" s="136" t="str">
+        <f>Dashboard!C38</f>
+        <v>storage.cost_per_mwh</v>
+      </c>
+      <c r="D33" s="136" t="str">
+        <f>Dashboard!D38</f>
+        <v>eur0/MWh</v>
+      </c>
+      <c r="E33" s="144">
+        <f>J27</f>
         <v>0</v>
       </c>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="138">
-        <v>0</v>
-      </c>
-      <c r="L33" s="139"/>
-      <c r="M33" s="112"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="111"/>
     </row>
     <row r="34" spans="2:13" ht="17" thickBot="1">
       <c r="B34" s="58"/>
-      <c r="C34" s="137" t="str">
-        <f>Dashboard!C38</f>
-        <v>storage.cost_per_mwh</v>
-      </c>
-      <c r="D34" s="137" t="str">
-        <f>Dashboard!D38</f>
-        <v>eur0/MWh</v>
-      </c>
-      <c r="E34" s="145">
-        <f>J34</f>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="96">
+        <f>K34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="147">
-        <f>Notes!E62</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="112"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="113"/>
     </row>
     <row r="35" spans="2:13" ht="17" thickBot="1">
       <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
+      <c r="C35" s="10" t="str">
+        <f>Dashboard!C40</f>
+        <v>Other</v>
+      </c>
       <c r="D35" s="59"/>
-      <c r="E35" s="97">
-        <f>K35</f>
-        <v>0</v>
-      </c>
+      <c r="E35" s="59"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="114"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="113"/>
     </row>
     <row r="36" spans="2:13" ht="17" thickBot="1">
       <c r="B36" s="58"/>
-      <c r="C36" s="10" t="str">
-        <f>Dashboard!C40</f>
-        <v>Other</v>
-      </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="114"/>
+      <c r="C36" s="136" t="str">
+        <f>Dashboard!C41</f>
+        <v>land_use_per_unit</v>
+      </c>
+      <c r="D36" s="136" t="str">
+        <f>Dashboard!D41</f>
+        <v>km2</v>
+      </c>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="137">
+        <v>0</v>
+      </c>
+      <c r="L36" s="138"/>
+      <c r="M36" s="111"/>
     </row>
     <row r="37" spans="2:13" ht="17" thickBot="1">
       <c r="B37" s="58"/>
-      <c r="C37" s="137" t="str">
-        <f>Dashboard!C41</f>
-        <v>land_use_per_unit</v>
-      </c>
-      <c r="D37" s="137" t="str">
-        <f>Dashboard!D41</f>
-        <v>km2</v>
-      </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="138">
+      <c r="C37" s="136" t="str">
+        <f>Dashboard!C42</f>
+        <v>construction_time</v>
+      </c>
+      <c r="D37" s="136" t="str">
+        <f>Dashboard!D42</f>
+        <v>years</v>
+      </c>
+      <c r="E37" s="137">
+        <f>K37</f>
         <v>0</v>
       </c>
-      <c r="L37" s="139"/>
-      <c r="M37" s="112"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="137">
+        <v>0</v>
+      </c>
+      <c r="L37" s="138"/>
+      <c r="M37" s="111"/>
     </row>
     <row r="38" spans="2:13" ht="17" thickBot="1">
       <c r="B38" s="58"/>
-      <c r="C38" s="137" t="str">
-        <f>Dashboard!C42</f>
-        <v>construction_time</v>
-      </c>
-      <c r="D38" s="137" t="str">
-        <f>Dashboard!D42</f>
+      <c r="C38" s="136" t="str">
+        <f>Dashboard!C43</f>
+        <v>technical_lifetime</v>
+      </c>
+      <c r="D38" s="136" t="str">
+        <f>Dashboard!D43</f>
         <v>years</v>
       </c>
-      <c r="E38" s="138">
-        <f>K38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="138">
-        <v>0</v>
-      </c>
-      <c r="L38" s="139"/>
-      <c r="M38" s="112"/>
+      <c r="E38" s="148">
+        <f>G38</f>
+        <v>15</v>
+      </c>
+      <c r="F38" s="136"/>
+      <c r="G38" s="149">
+        <f>Notes!E50</f>
+        <v>15</v>
+      </c>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="111"/>
     </row>
     <row r="39" spans="2:13" ht="17" thickBot="1">
       <c r="B39" s="58"/>
-      <c r="C39" s="137" t="str">
-        <f>Dashboard!C43</f>
-        <v>technical_lifetime</v>
-      </c>
-      <c r="D39" s="137" t="str">
-        <f>Dashboard!D43</f>
-        <v>years</v>
-      </c>
-      <c r="E39" s="149">
-        <f>G39</f>
-        <v>15</v>
-      </c>
-      <c r="F39" s="137"/>
-      <c r="G39" s="150">
-        <f>Notes!E50</f>
-        <v>15</v>
-      </c>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="112"/>
-    </row>
-    <row r="40" spans="2:13" ht="17" thickBot="1">
-      <c r="B40" s="58"/>
-      <c r="C40" s="137" t="str">
+      <c r="C39" s="136" t="str">
         <f>Dashboard!C44</f>
         <v>free_co2_factor</v>
       </c>
-      <c r="D40" s="137" t="str">
+      <c r="D39" s="136" t="str">
         <f>Dashboard!D44</f>
         <v>-</v>
       </c>
-      <c r="E40" s="138">
-        <f t="shared" ref="E40:E45" si="1">K40</f>
+      <c r="E39" s="137">
+        <f t="shared" ref="E39" si="1">K39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="138">
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="137">
         <v>0</v>
       </c>
-      <c r="L40" s="139"/>
-      <c r="M40" s="112"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="111"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="113"/>
     </row>
     <row r="41" spans="2:13" ht="17" thickBot="1">
-      <c r="B41" s="58"/>
-      <c r="C41" s="137" t="str">
-        <f>Dashboard!C45</f>
-        <v>hours_prep_nl</v>
-      </c>
-      <c r="D41" s="137" t="str">
-        <f>Dashboard!D45</f>
-        <v>-</v>
-      </c>
-      <c r="E41" s="138">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="138">
-        <v>0</v>
-      </c>
-      <c r="L41" s="139"/>
-      <c r="M41" s="112"/>
-    </row>
-    <row r="42" spans="2:13" ht="17" thickBot="1">
-      <c r="B42" s="58"/>
-      <c r="C42" s="137" t="str">
-        <f>Dashboard!C46</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="D42" s="137" t="str">
-        <f>Dashboard!D46</f>
-        <v>-</v>
-      </c>
-      <c r="E42" s="138">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="138">
-        <v>0</v>
-      </c>
-      <c r="L42" s="139"/>
-      <c r="M42" s="112"/>
-    </row>
-    <row r="43" spans="2:13" ht="17" thickBot="1">
-      <c r="B43" s="58"/>
-      <c r="C43" s="137" t="str">
-        <f>Dashboard!C47</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="D43" s="137" t="str">
-        <f>Dashboard!D47</f>
-        <v>-</v>
-      </c>
-      <c r="E43" s="138">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="138">
-        <v>7</v>
-      </c>
-      <c r="L43" s="139"/>
-      <c r="M43" s="112"/>
-    </row>
-    <row r="44" spans="2:13" ht="17" thickBot="1">
-      <c r="B44" s="58"/>
-      <c r="C44" s="137" t="str">
-        <f>Dashboard!C48</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="D44" s="137" t="str">
-        <f>Dashboard!D48</f>
-        <v>-</v>
-      </c>
-      <c r="E44" s="138">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="138">
-        <v>1.5</v>
-      </c>
-      <c r="L44" s="139"/>
-      <c r="M44" s="112"/>
-    </row>
-    <row r="45" spans="2:13" ht="17" thickBot="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="137" t="str">
-        <f>Dashboard!C49</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D45" s="137" t="str">
-        <f>Dashboard!D49</f>
-        <v>-</v>
-      </c>
-      <c r="E45" s="138">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="138">
-        <v>7</v>
-      </c>
-      <c r="L45" s="139"/>
-      <c r="M45" s="112"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="114"/>
-    </row>
-    <row r="47" spans="2:13" ht="17" thickBot="1">
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="118"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4486,10 +4435,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K53"/>
+  <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
@@ -4517,7 +4466,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="43"/>
-      <c r="K2" s="101"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="44"/>
@@ -4531,7 +4480,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="46"/>
-      <c r="K3" s="102"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44"/>
@@ -4543,7 +4492,7 @@
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="102"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="49"/>
@@ -4561,15 +4510,15 @@
         <v>28</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="102" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4583,746 +4532,768 @@
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="102"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="44"/>
-      <c r="C7" s="122" t="str">
+      <c r="C7" s="121" t="str">
         <f>Dashboard!C14</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="123">
+      <c r="D7" s="122"/>
+      <c r="E7" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="122">
         <v>2015</v>
       </c>
-      <c r="H7" s="123">
+      <c r="H7" s="122">
         <v>2015</v>
       </c>
-      <c r="I7" s="124">
+      <c r="I7" s="123">
         <v>42948</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="125"/>
+      <c r="J7" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="44"/>
-      <c r="C8" s="122" t="str">
+      <c r="C8" s="121" t="str">
         <f>Dashboard!C16</f>
         <v>fever.cop_per_degree</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="125"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="124"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="44"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="124"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="44"/>
-      <c r="C10" s="122" t="str">
+      <c r="C10" s="121" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="123">
+      <c r="D10" s="122"/>
+      <c r="E10" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="122">
         <v>2010</v>
       </c>
-      <c r="H10" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="124">
+      <c r="H10" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="123">
         <v>42948</v>
       </c>
-      <c r="J10" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="125"/>
+      <c r="J10" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="124"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="44"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="124"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="44"/>
-      <c r="C12" s="126" t="str">
+      <c r="C12" s="125" t="str">
         <f>Dashboard!C29</f>
         <v>initial_investment</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="123" t="s">
+      <c r="D12" s="122"/>
+      <c r="E12" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123">
+        <v>42948</v>
+      </c>
+      <c r="J12" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124">
-        <v>42948</v>
-      </c>
-      <c r="J12" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="125" t="s">
-        <v>103</v>
+      <c r="K12" s="124" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="44"/>
-      <c r="C13" s="122" t="str">
+      <c r="C13" s="125"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="122">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123">
+        <v>43831</v>
+      </c>
+      <c r="J13" s="121" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="124"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="44"/>
+      <c r="C14" s="121" t="str">
         <f>Dashboard!C15</f>
         <v>fever.capacity.electricity</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="125"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="44"/>
-      <c r="C14" s="126" t="str">
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="124"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="44"/>
+      <c r="C15" s="125" t="str">
         <f>Dashboard!C31</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="125"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="44"/>
-      <c r="C15" s="126" t="str">
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="124"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="44"/>
+      <c r="C16" s="125" t="str">
         <f>Dashboard!C26</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="125"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="44"/>
-      <c r="C16" s="126" t="str">
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="124"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="44"/>
+      <c r="C17" s="125" t="str">
         <f>Dashboard!C33</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="125"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="44"/>
-      <c r="C17" s="128" t="str">
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="124"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="44"/>
+      <c r="C18" s="127" t="str">
         <f>Dashboard!C43</f>
         <v>technical_lifetime</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="125"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="44"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="125"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="124"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="44"/>
-      <c r="C19" s="122" t="str">
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="124"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="44"/>
+      <c r="C20" s="121" t="str">
         <f>Dashboard!C38</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="125"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="44"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="125"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="124"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="44"/>
-      <c r="C21" s="122" t="str">
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="124"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="44"/>
+      <c r="C22" s="121" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="124">
+      <c r="D22" s="122"/>
+      <c r="E22" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="123">
         <v>42948</v>
       </c>
-      <c r="J21" s="127" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="125"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="44"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="125"/>
+      <c r="J22" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="124"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="44"/>
-      <c r="C23" s="123" t="str">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="124"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="44"/>
+      <c r="C24" s="122" t="str">
         <f>Dashboard!C10</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" s="125"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="44"/>
-      <c r="C24" s="123" t="str">
+      <c r="D24" s="122"/>
+      <c r="E24" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="124"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="44"/>
+      <c r="C25" s="122" t="str">
         <f>Dashboard!C11</f>
         <v>input.electricity</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="125"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" customHeight="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="123" t="str">
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="124"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" customHeight="1">
+      <c r="B26" s="44"/>
+      <c r="C26" s="122" t="str">
         <f>Dashboard!C12</f>
         <v>output.cooling</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="125"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="44"/>
-      <c r="C26" s="123" t="str">
-        <f>Dashboard!C13</f>
-        <v>output.useable_heat</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="125"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="124"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="44"/>
       <c r="C27" s="122" t="str">
+        <f>Dashboard!C13</f>
+        <v>output.useable_heat</v>
+      </c>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="124"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="44"/>
+      <c r="C28" s="121" t="str">
         <f>Dashboard!C18</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="125"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" customHeight="1">
-      <c r="B28" s="44"/>
-      <c r="C28" s="123" t="str">
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="124"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" customHeight="1">
+      <c r="B29" s="44"/>
+      <c r="C29" s="122" t="str">
         <f>Dashboard!C20</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="125"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="44"/>
-      <c r="C29" s="123" t="str">
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="124"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="44"/>
+      <c r="C30" s="122" t="str">
         <f>Dashboard!C21</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="125"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="44"/>
-      <c r="C30" s="123" t="str">
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="124"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="44"/>
+      <c r="C31" s="122" t="str">
         <f>Dashboard!C22</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="125"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="44"/>
-      <c r="C31" s="123" t="str">
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="124"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="44"/>
+      <c r="C32" s="122" t="str">
         <f>Dashboard!C23</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="125"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="44"/>
-      <c r="C32" s="123" t="str">
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="124"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="44"/>
+      <c r="C33" s="122" t="str">
         <f>Dashboard!C24</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="125"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="44"/>
-      <c r="C33" s="123" t="str">
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="124"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="44"/>
+      <c r="C34" s="122" t="str">
         <f>Dashboard!C25</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="125"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="44"/>
-      <c r="C34" s="123" t="e">
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="124"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="44"/>
+      <c r="C35" s="122" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="125"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="44"/>
-      <c r="C35" s="123" t="e">
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="124"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="44"/>
+      <c r="C36" s="122" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="125"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="44"/>
-      <c r="C36" s="123" t="e">
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="124"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="44"/>
+      <c r="C37" s="122" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="125"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="44"/>
-      <c r="C37" s="123" t="e">
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="124"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="44"/>
+      <c r="C38" s="122" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="125"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="44"/>
-      <c r="C38" s="123" t="e">
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="124"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="44"/>
+      <c r="C39" s="122" t="e">
         <f>Dashboard!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="125"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="44"/>
-      <c r="C39" s="123" t="str">
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="124"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="44"/>
+      <c r="C40" s="122" t="str">
         <f>Dashboard!C30</f>
         <v>ccs_investment</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="125"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="44"/>
-      <c r="C40" s="123" t="str">
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="124"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="44"/>
+      <c r="C41" s="122" t="str">
         <f>Dashboard!C32</f>
         <v>decommissioning_costs</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="125"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="44"/>
-      <c r="C41" s="123" t="str">
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="124"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="44"/>
+      <c r="C42" s="122" t="str">
         <f>Dashboard!C34</f>
         <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
       </c>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="125"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="44"/>
-      <c r="C42" s="123" t="str">
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="124"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="44"/>
+      <c r="C43" s="122" t="str">
         <f>Dashboard!C35</f>
         <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
       </c>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="125"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="44"/>
-      <c r="C43" s="123" t="str">
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="124"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="44"/>
+      <c r="C44" s="122" t="str">
         <f>Dashboard!C36</f>
         <v>wacc</v>
       </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="125"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="44"/>
-      <c r="C44" s="123" t="str">
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="124"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="44"/>
+      <c r="C45" s="122" t="str">
         <f>Dashboard!C37</f>
         <v>takes_part_in_ets</v>
       </c>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="125"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="44"/>
-      <c r="C45" s="123" t="str">
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="124"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="44"/>
+      <c r="C46" s="122" t="str">
         <f>Dashboard!C41</f>
         <v>land_use_per_unit</v>
       </c>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="125"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="44"/>
-      <c r="C46" s="123" t="str">
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="124"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="44"/>
+      <c r="C47" s="122" t="str">
         <f>Dashboard!C42</f>
         <v>construction_time</v>
       </c>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="125"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="44"/>
-      <c r="C47" s="123" t="str">
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="124"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="44"/>
+      <c r="C48" s="122" t="str">
         <f>Dashboard!C44</f>
         <v>free_co2_factor</v>
       </c>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="125"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="44"/>
-      <c r="C48" s="123" t="str">
-        <f>Dashboard!C45</f>
-        <v>hours_prep_nl</v>
-      </c>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="125"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="124"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="44"/>
-      <c r="C49" s="123" t="str">
-        <f>Dashboard!C46</f>
-        <v>hours_prod_nl</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="125"/>
+      <c r="C49" s="122" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="124"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="44"/>
-      <c r="C50" s="123" t="str">
-        <f>Dashboard!C47</f>
-        <v>hours_place_nl</v>
-      </c>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="125"/>
+      <c r="C50" s="122" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="44"/>
-      <c r="C51" s="123" t="str">
-        <f>Dashboard!C48</f>
-        <v>hours_maint_nl</v>
-      </c>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="125"/>
+      <c r="C51" s="122" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="124"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="44"/>
-      <c r="C52" s="123" t="str">
-        <f>Dashboard!C49</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="125"/>
-    </row>
-    <row r="53" spans="2:11" ht="17" thickBot="1">
-      <c r="B53" s="105"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="108"/>
+      <c r="C52" s="122" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="124"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="44"/>
+      <c r="C53" s="122" t="e">
+        <f>Dashboard!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="124"/>
+    </row>
+    <row r="54" spans="2:11" ht="17" thickBot="1">
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5332,10 +5303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A61" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -5345,15 +5316,16 @@
     <col min="3" max="3" width="21.6640625" style="83" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" style="83" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="83" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="83" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="83"/>
-    <col min="10" max="10" width="136.33203125" style="83" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="83"/>
+    <col min="6" max="6" width="17.83203125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="83" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="83" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" style="83"/>
+    <col min="11" max="11" width="136.33203125" style="83" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1"/>
-    <row r="3" spans="2:10">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="84"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -5362,24 +5334,26 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="J3" s="12"/>
+      <c r="K3" s="85"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="75"/>
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="86"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="J4" s="11"/>
+      <c r="K4" s="86"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="87"/>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
@@ -5388,9 +5362,10 @@
       <c r="G5" s="88"/>
       <c r="H5" s="88"/>
       <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="87"/>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -5399,15 +5374,16 @@
       <c r="G6" s="88"/>
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="87"/>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7" s="88">
         <v>65</v>
@@ -5416,9 +5392,10 @@
       <c r="G7" s="88"/>
       <c r="H7" s="88"/>
       <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="87"/>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
@@ -5427,9 +5404,10 @@
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -5438,9 +5416,10 @@
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
       <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="87"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -5449,9 +5428,10 @@
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -5460,9 +5440,10 @@
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="87"/>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
@@ -5471,56 +5452,60 @@
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="88"/>
       <c r="G13" s="88"/>
       <c r="H13" s="88"/>
       <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E14" s="88">
         <v>3.25</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
       <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="87"/>
       <c r="C15" s="88"/>
       <c r="D15" s="90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E15" s="88">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G15" s="88"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
@@ -5529,9 +5514,10 @@
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="87"/>
       <c r="C17" s="91"/>
       <c r="D17" s="88"/>
@@ -5540,9 +5526,10 @@
       <c r="G17" s="88"/>
       <c r="H17" s="88"/>
       <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -5551,9 +5538,10 @@
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
@@ -5562,9 +5550,10 @@
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
@@ -5573,9 +5562,10 @@
       <c r="G20" s="88"/>
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
-      <c r="J20" s="89"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
@@ -5584,148 +5574,157 @@
       <c r="G21" s="88"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="87"/>
       <c r="C22" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="88"/>
       <c r="F22" s="88"/>
-      <c r="G22" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88" t="s">
+        <v>126</v>
+      </c>
       <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="87"/>
       <c r="C23" s="10"/>
       <c r="D23" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="130">
+        <v>124</v>
+      </c>
+      <c r="E23" s="129">
         <v>10</v>
       </c>
-      <c r="F23" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="88"/>
+      <c r="F23" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="129"/>
       <c r="H23" s="88"/>
       <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="87"/>
       <c r="C24" s="10"/>
       <c r="D24" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="130">
+        <v>119</v>
+      </c>
+      <c r="E24" s="129">
         <v>10</v>
       </c>
-      <c r="F24" s="130" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="88"/>
+      <c r="F24" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="129"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="87"/>
       <c r="C25" s="10"/>
       <c r="D25" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="130">
+        <v>120</v>
+      </c>
+      <c r="E25" s="129">
         <v>4.18</v>
       </c>
-      <c r="F25" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="88"/>
+      <c r="F25" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="129"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="87"/>
       <c r="C26" s="10"/>
       <c r="D26" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="130">
+        <v>121</v>
+      </c>
+      <c r="E26" s="129">
         <v>10</v>
       </c>
-      <c r="F26" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="88"/>
+      <c r="F26" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="129"/>
+      <c r="H26" s="88" t="s">
+        <v>125</v>
+      </c>
       <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="87"/>
       <c r="C27" s="10"/>
       <c r="D27" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="131">
+        <v>122</v>
+      </c>
+      <c r="E27" s="130">
         <f>E23*60*E24/E25/E26</f>
         <v>143.54066985645935</v>
       </c>
-      <c r="F27" s="130" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="88"/>
+      <c r="F27" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="129"/>
       <c r="H27" s="88"/>
       <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="87"/>
       <c r="C28" s="10"/>
       <c r="D28" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="131">
+        <v>123</v>
+      </c>
+      <c r="E28" s="130">
         <v>3600000</v>
       </c>
-      <c r="F28" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="88"/>
+      <c r="F28" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="129"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88"/>
-      <c r="J28" s="89"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="87"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="132" t="str">
+      <c r="D29" s="131" t="str">
         <f>Dashboard!C17</f>
         <v>storage.volume</v>
       </c>
-      <c r="E29" s="130">
+      <c r="E29" s="129">
         <f>MROUND(E27*E26*E25/E28,0.0001)</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="F29" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="88"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="129"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="87"/>
       <c r="C30" s="10"/>
       <c r="D30" s="88"/>
@@ -5734,135 +5733,143 @@
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
       <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="87"/>
       <c r="C31" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="130">
+        <v>124</v>
+      </c>
+      <c r="E31" s="129">
         <v>20</v>
       </c>
-      <c r="F31" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="88"/>
+      <c r="F31" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="129"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="87"/>
       <c r="C32" s="10"/>
       <c r="D32" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="130">
+        <v>119</v>
+      </c>
+      <c r="E32" s="129">
         <v>10</v>
       </c>
-      <c r="F32" s="130" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="88"/>
+      <c r="F32" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="129"/>
       <c r="H32" s="88"/>
       <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="J32" s="88"/>
+      <c r="K32" s="89"/>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="87"/>
       <c r="C33" s="10"/>
       <c r="D33" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="130">
+        <v>120</v>
+      </c>
+      <c r="E33" s="129">
         <v>4.18</v>
       </c>
-      <c r="F33" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="88"/>
+      <c r="F33" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="129"/>
       <c r="H33" s="88"/>
       <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="87"/>
       <c r="C34" s="10"/>
       <c r="D34" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="130">
+        <v>121</v>
+      </c>
+      <c r="E34" s="129">
         <v>10</v>
       </c>
-      <c r="F34" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="88"/>
+      <c r="F34" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="129"/>
+      <c r="H34" s="88" t="s">
+        <v>125</v>
+      </c>
       <c r="I34" s="88"/>
-      <c r="J34" s="89"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="J34" s="88"/>
+      <c r="K34" s="89"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="87"/>
       <c r="C35" s="10"/>
       <c r="D35" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="131">
+        <v>122</v>
+      </c>
+      <c r="E35" s="130">
         <f>E31*60*E32/E33/E34</f>
         <v>287.08133971291869</v>
       </c>
-      <c r="F35" s="130" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="88"/>
+      <c r="F35" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="129"/>
       <c r="H35" s="88"/>
       <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="J35" s="88"/>
+      <c r="K35" s="89"/>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="87"/>
       <c r="C36" s="10"/>
       <c r="D36" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="131">
+        <v>123</v>
+      </c>
+      <c r="E36" s="130">
         <v>3600000</v>
       </c>
-      <c r="F36" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="88"/>
+      <c r="F36" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="129"/>
       <c r="H36" s="88"/>
       <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="J36" s="88"/>
+      <c r="K36" s="89"/>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="87"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="132" t="str">
+      <c r="D37" s="131" t="str">
         <f>Dashboard!C$17</f>
         <v>storage.volume</v>
       </c>
-      <c r="E37" s="130">
+      <c r="E37" s="129">
         <f>MROUND(E35*E34*E33/E36,0.0001)</f>
         <v>3.3E-3</v>
       </c>
-      <c r="F37" s="130" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="88"/>
+      <c r="F37" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="129"/>
       <c r="H37" s="88"/>
       <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="J37" s="88"/>
+      <c r="K37" s="89"/>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="D38" s="88"/>
@@ -5871,9 +5878,10 @@
       <c r="G38" s="88"/>
       <c r="H38" s="88"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" s="87"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -5882,9 +5890,10 @@
       <c r="G39" s="88"/>
       <c r="H39" s="88"/>
       <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" s="87"/>
       <c r="C40" s="88"/>
       <c r="D40" s="88"/>
@@ -5893,9 +5902,10 @@
       <c r="G40" s="88"/>
       <c r="H40" s="88"/>
       <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="J40" s="88"/>
+      <c r="K40" s="89"/>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" s="87"/>
       <c r="C41" s="88"/>
       <c r="D41" s="88"/>
@@ -5904,9 +5914,10 @@
       <c r="G41" s="88"/>
       <c r="H41" s="88"/>
       <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="J41" s="88"/>
+      <c r="K41" s="89"/>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
@@ -5915,9 +5926,10 @@
       <c r="G42" s="88"/>
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="J42" s="88"/>
+      <c r="K42" s="89"/>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
       <c r="D43" s="88"/>
@@ -5926,9 +5938,10 @@
       <c r="G43" s="88"/>
       <c r="H43" s="88"/>
       <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="J43" s="88"/>
+      <c r="K43" s="89"/>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44" s="87"/>
       <c r="C44" s="88"/>
       <c r="D44" s="88"/>
@@ -5937,9 +5950,10 @@
       <c r="G44" s="88"/>
       <c r="H44" s="88"/>
       <c r="I44" s="88"/>
-      <c r="J44" s="89"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="J44" s="88"/>
+      <c r="K44" s="89"/>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45" s="87"/>
       <c r="C45" s="88"/>
       <c r="D45" s="88"/>
@@ -5948,9 +5962,10 @@
       <c r="G45" s="88"/>
       <c r="H45" s="88"/>
       <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="J45" s="88"/>
+      <c r="K45" s="89"/>
+    </row>
+    <row r="46" spans="2:11">
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
@@ -5959,39 +5974,42 @@
       <c r="G46" s="88"/>
       <c r="H46" s="88"/>
       <c r="I46" s="88"/>
-      <c r="J46" s="89"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="J46" s="88"/>
+      <c r="K46" s="89"/>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47" s="87"/>
       <c r="C47" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E47" s="88"/>
       <c r="F47" s="88"/>
       <c r="G47" s="88"/>
       <c r="H47" s="88"/>
       <c r="I47" s="88"/>
-      <c r="J47" s="89"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="J47" s="88"/>
+      <c r="K47" s="89"/>
+    </row>
+    <row r="48" spans="2:11">
       <c r="B48" s="87"/>
       <c r="C48" s="10"/>
       <c r="D48" s="88" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E48" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F48" s="88"/>
       <c r="G48" s="88"/>
       <c r="H48" s="88"/>
       <c r="I48" s="88"/>
-      <c r="J48" s="89"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="J48" s="88"/>
+      <c r="K48" s="89"/>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="87"/>
       <c r="C49" s="88"/>
       <c r="D49" s="88"/>
@@ -6000,12 +6018,13 @@
       <c r="G49" s="88"/>
       <c r="H49" s="88"/>
       <c r="I49" s="88"/>
-      <c r="J49" s="89"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="J49" s="88"/>
+      <c r="K49" s="89"/>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="87"/>
       <c r="C50" s="88"/>
-      <c r="D50" s="133" t="str">
+      <c r="D50" s="132" t="str">
         <f>Dashboard!C43</f>
         <v>technical_lifetime</v>
       </c>
@@ -6016,15 +6035,16 @@
         <v>1</v>
       </c>
       <c r="G50" s="82"/>
-      <c r="H50" s="88"/>
+      <c r="H50" s="82"/>
       <c r="I50" s="88"/>
-      <c r="J50" s="89"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="J50" s="88"/>
+      <c r="K50" s="89"/>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="87"/>
       <c r="C51" s="88"/>
       <c r="D51" s="88" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E51" s="88">
         <v>9500</v>
@@ -6032,36 +6052,38 @@
       <c r="F51" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="82"/>
       <c r="I51" s="88"/>
-      <c r="J51" s="89"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="J51" s="88"/>
+      <c r="K51" s="89"/>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="87"/>
       <c r="C52" s="88"/>
       <c r="D52" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="153">
+        <v>137</v>
+      </c>
+      <c r="E52" s="152">
         <v>253.6</v>
       </c>
       <c r="F52" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="82"/>
-      <c r="H52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="89"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="J52" s="88"/>
+      <c r="K52" s="89"/>
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="87"/>
       <c r="C53" s="88"/>
-      <c r="D53" s="133" t="str">
+      <c r="D53" s="132" t="str">
         <f>Dashboard!C29</f>
         <v>initial_investment</v>
       </c>
-      <c r="E53" s="153">
+      <c r="E53" s="152">
         <f>E51-E52</f>
         <v>9246.4</v>
       </c>
@@ -6071,12 +6093,13 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
       <c r="I53" s="88"/>
-      <c r="J53" s="89"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="J53" s="88"/>
+      <c r="K53" s="89"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="87"/>
       <c r="C54" s="88"/>
-      <c r="D54" s="133" t="str">
+      <c r="D54" s="132" t="str">
         <f>Dashboard!C31</f>
         <v>cost_of_installing</v>
       </c>
@@ -6086,17 +6109,18 @@
       <c r="F54" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>138</v>
+      </c>
       <c r="I54" s="88"/>
-      <c r="J54" s="89"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="J54" s="88"/>
+      <c r="K54" s="89"/>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="87"/>
       <c r="C55" s="88"/>
-      <c r="D55" s="133" t="str">
+      <c r="D55" s="132" t="str">
         <f>Dashboard!C33</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
@@ -6109,32 +6133,34 @@
       <c r="G55" s="88"/>
       <c r="H55" s="88"/>
       <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="J55" s="88"/>
+      <c r="K55" s="89"/>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="87"/>
       <c r="C56" s="88"/>
-      <c r="D56" s="133" t="str">
+      <c r="D56" s="132" t="str">
         <f>Dashboard!C26</f>
         <v>heat_output_capacity</v>
       </c>
       <c r="E56" s="88">
-        <f>H56/1000</f>
+        <f>I56/1000</f>
         <v>0.01</v>
       </c>
       <c r="F56" s="88" t="s">
         <v>57</v>
       </c>
       <c r="G56" s="88"/>
-      <c r="H56" s="88">
+      <c r="H56" s="88"/>
+      <c r="I56" s="88">
         <v>10</v>
       </c>
-      <c r="I56" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="J56" s="89"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="J56" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="89"/>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="87"/>
       <c r="C57" s="88"/>
       <c r="D57" s="88"/>
@@ -6143,33 +6169,35 @@
       <c r="G57" s="88"/>
       <c r="H57" s="88"/>
       <c r="I57" s="88"/>
-      <c r="J57" s="89"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="J57" s="88"/>
+      <c r="K57" s="89"/>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="87"/>
       <c r="C58" s="88"/>
       <c r="D58" s="88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E58" s="88">
         <v>7</v>
       </c>
       <c r="F58" s="88" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G58" s="88"/>
       <c r="H58" s="88"/>
       <c r="I58" s="88"/>
-      <c r="J58" s="89"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="J58" s="88"/>
+      <c r="K58" s="89"/>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="87"/>
       <c r="C59" s="88"/>
       <c r="D59" s="90" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E59" s="88">
-        <f>H56/(E58*E15+E14)/1000</f>
+        <f>I56/(E58*E15+E14)/1000</f>
         <v>2.5889967637540458E-3</v>
       </c>
       <c r="F59" s="88" t="s">
@@ -6178,12 +6206,13 @@
       <c r="G59" s="88"/>
       <c r="H59" s="88"/>
       <c r="I59" s="88"/>
-      <c r="J59" s="89"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="J59" s="88"/>
+      <c r="K59" s="89"/>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="87"/>
       <c r="C60" s="88"/>
-      <c r="D60" s="132" t="str">
+      <c r="D60" s="131" t="str">
         <f>Dashboard!C$17</f>
         <v>storage.volume</v>
       </c>
@@ -6191,16 +6220,17 @@
         <v>0</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" s="88"/>
+        <v>133</v>
+      </c>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88" t="s">
+        <v>135</v>
+      </c>
       <c r="I60" s="88"/>
-      <c r="J60" s="89"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="J60" s="88"/>
+      <c r="K60" s="89"/>
+    </row>
+    <row r="61" spans="2:11">
       <c r="B61" s="87"/>
       <c r="C61" s="88"/>
       <c r="D61" s="88"/>
@@ -6209,38 +6239,697 @@
       <c r="G61" s="88"/>
       <c r="H61" s="88"/>
       <c r="I61" s="88"/>
-      <c r="J61" s="89"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="J61" s="88"/>
+      <c r="K61" s="89"/>
+    </row>
+    <row r="62" spans="2:11">
       <c r="B62" s="87"/>
       <c r="C62" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="132" t="str">
+        <v>99</v>
+      </c>
+      <c r="D62" s="131" t="str">
         <f>Dashboard!C38</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="E62" s="104">
+      <c r="E62" s="103">
         <v>0</v>
       </c>
-      <c r="F62" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="88"/>
+      <c r="F62" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="103"/>
       <c r="H62" s="88"/>
       <c r="I62" s="88"/>
-      <c r="J62" s="89"/>
-    </row>
-    <row r="63" spans="2:10" ht="17" thickBot="1">
-      <c r="B63" s="134"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="136"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="89"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="87"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="89"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="87"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="87"/>
+      <c r="C65" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="89"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="87"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="89"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="87"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="153" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="88">
+        <v>4637</v>
+      </c>
+      <c r="F67" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="89"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="87"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="88">
+        <v>320</v>
+      </c>
+      <c r="F68" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="155" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="89"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="87"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="88">
+        <f>E67+E68*E24</f>
+        <v>7837</v>
+      </c>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="89"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="87"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="89"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="87"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="88">
+        <v>5359</v>
+      </c>
+      <c r="F71" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="G71" s="153" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="89"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="87"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="153" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="88">
+        <v>500</v>
+      </c>
+      <c r="F72" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="155" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="89"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="87"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="88">
+        <f>E71+E72*E24</f>
+        <v>10359</v>
+      </c>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="89"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="87"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="89"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="87"/>
+      <c r="C75" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="88">
+        <f>(E69+E73)/2</f>
+        <v>9098</v>
+      </c>
+      <c r="F75" s="153" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="89"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="87"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="153" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="89"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="87"/>
+      <c r="C77" s="10"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="89"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="87"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="89"/>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="87"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="89"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="87"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="89"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="87"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="89"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="87"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="89"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="87"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
+      <c r="G83" s="88"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="89"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="87"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="88"/>
+      <c r="K84" s="89"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="87"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="89"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="87"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="88"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="89"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="87"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="89"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="87"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="89"/>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="87"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="89"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="87"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="89"/>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="87"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
+      <c r="K91" s="89"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="87"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="88"/>
+      <c r="J92" s="88"/>
+      <c r="K92" s="89"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="87"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="89"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="87"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="88"/>
+      <c r="K94" s="89"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="87"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="89"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="87"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="88"/>
+      <c r="K96" s="89"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="87"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="88"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="88"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="89"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="87"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="88"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
+      <c r="K98" s="89"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="87"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="89"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="87"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="88"/>
+      <c r="E100" s="88"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="88"/>
+      <c r="K100" s="89"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="87"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="89"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="87"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="88"/>
+      <c r="H102" s="88"/>
+      <c r="I102" s="88"/>
+      <c r="J102" s="88"/>
+      <c r="K102" s="89"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="87"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="88"/>
+      <c r="I103" s="88"/>
+      <c r="J103" s="88"/>
+      <c r="K103" s="89"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="87"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="89"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="87"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="K105" s="89"/>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="87"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="88"/>
+      <c r="I106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="89"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="87"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
+      <c r="H107" s="88"/>
+      <c r="I107" s="88"/>
+      <c r="J107" s="88"/>
+      <c r="K107" s="89"/>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="87"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="88"/>
+      <c r="J108" s="88"/>
+      <c r="K108" s="89"/>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="87"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="89"/>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="87"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="88"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="88"/>
+      <c r="J110" s="88"/>
+      <c r="K110" s="89"/>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="87"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
+      <c r="H111" s="88"/>
+      <c r="I111" s="88"/>
+      <c r="J111" s="88"/>
+      <c r="K111" s="89"/>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="87"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="88"/>
+      <c r="J112" s="88"/>
+      <c r="K112" s="89"/>
+    </row>
+    <row r="113" spans="2:11" ht="17" thickBot="1">
+      <c r="B113" s="133"/>
+      <c r="C113" s="134"/>
+      <c r="D113" s="134"/>
+      <c r="E113" s="134"/>
+      <c r="F113" s="134"/>
+      <c r="G113" s="134"/>
+      <c r="H113" s="134"/>
+      <c r="I113" s="134"/>
+      <c r="J113" s="134"/>
+      <c r="K113" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
